--- a/Final tables.xlsx
+++ b/Final tables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Audrey\Google Drive\CUNY SPH Coursework\EPID622 Applied Research- Data Management\NHANES SES sleep CRP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Audrey\Documents\nhanes_ses_sleep_crp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="145">
   <si>
     <t>95% CI</t>
   </si>
@@ -190,12 +190,6 @@
     <t>birth_control</t>
   </si>
   <si>
-    <t>Missing</t>
-  </si>
-  <si>
-    <t>N/A (Male)</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -289,9 +283,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Effect</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -301,139 +292,10 @@
     <t>pval</t>
   </si>
   <si>
-    <t>DMDEDUC2 9-11th Grade (Includes 12th grade with no diploma)</t>
-  </si>
-  <si>
     <t>&lt;0.0001</t>
   </si>
   <si>
-    <t>phys_act Missing</t>
-  </si>
-  <si>
-    <t>phys_act No</t>
-  </si>
-  <si>
-    <t>phys_act Yes</t>
-  </si>
-  <si>
-    <t>RIAGENDR Female</t>
-  </si>
-  <si>
-    <t>RIAGENDR Male</t>
-  </si>
-  <si>
-    <t>RIDRETH1 Mexican American</t>
-  </si>
-  <si>
-    <t>RIDRETH1 Non-Hispanic Black</t>
-  </si>
-  <si>
-    <t>RIDRETH1 Non-Hispanic White</t>
-  </si>
-  <si>
-    <t>RIDRETH1 Other Hispanic</t>
-  </si>
-  <si>
-    <t>RIDRETH1 Other Race - Including Multi-Racial</t>
-  </si>
-  <si>
     <t>agecat</t>
-  </si>
-  <si>
-    <t>agecat 20-24</t>
-  </si>
-  <si>
-    <t>agecat 25-29</t>
-  </si>
-  <si>
-    <t>agecat 30-34</t>
-  </si>
-  <si>
-    <t>agecat 35-39</t>
-  </si>
-  <si>
-    <t>agecat 40-44</t>
-  </si>
-  <si>
-    <t>agecat 45-49</t>
-  </si>
-  <si>
-    <t>agecat 50-54</t>
-  </si>
-  <si>
-    <t>agecat 55-59</t>
-  </si>
-  <si>
-    <t>agecat 60-64</t>
-  </si>
-  <si>
-    <t>agecat 65-69</t>
-  </si>
-  <si>
-    <t>agecat 70-74</t>
-  </si>
-  <si>
-    <t>agecat 75-79</t>
-  </si>
-  <si>
-    <t>agecat 80+</t>
-  </si>
-  <si>
-    <t>birth_control Missing</t>
-  </si>
-  <si>
-    <t>birth_control N/A (Male)</t>
-  </si>
-  <si>
-    <t>birth_control No</t>
-  </si>
-  <si>
-    <t>birth_control Yes</t>
-  </si>
-  <si>
-    <t>cotinine_cat 3+ ng/mL</t>
-  </si>
-  <si>
-    <t>cotinine_cat &lt;3 ng/mL</t>
-  </si>
-  <si>
-    <t>hrt Missing</t>
-  </si>
-  <si>
-    <t>hrt N/A (Male)</t>
-  </si>
-  <si>
-    <t>hrt No</t>
-  </si>
-  <si>
-    <t>hrt Yes</t>
-  </si>
-  <si>
-    <t>obese No</t>
-  </si>
-  <si>
-    <t>obese Yes</t>
-  </si>
-  <si>
-    <t>poor_sleep No</t>
-  </si>
-  <si>
-    <t>poor_sleep Yes</t>
-  </si>
-  <si>
-    <t>short_sleep No</t>
-  </si>
-  <si>
-    <t>short_sleep Yes</t>
-  </si>
-  <si>
-    <t>sleep_med Missing</t>
-  </si>
-  <si>
-    <t>sleep_med No</t>
-  </si>
-  <si>
-    <t>sleep_med Yes</t>
   </si>
   <si>
     <t>Table 2. Mean plasma c-reactive protein (CRP).</t>
@@ -588,13 +450,103 @@
   <si>
     <t>Mean CRP (mg/L)</t>
   </si>
+  <si>
+    <t>ss_p</t>
+  </si>
+  <si>
+    <t>ps_p</t>
+  </si>
+  <si>
+    <t>&lt;.0001</t>
+  </si>
+  <si>
+    <t>0.0230</t>
+  </si>
+  <si>
+    <t>0.4384</t>
+  </si>
+  <si>
+    <t>0.0040</t>
+  </si>
+  <si>
+    <t>0.0758</t>
+  </si>
+  <si>
+    <t>0.0014</t>
+  </si>
+  <si>
+    <t>0.0158</t>
+  </si>
+  <si>
+    <t>0.0582</t>
+  </si>
+  <si>
+    <t>0.2493</t>
+  </si>
+  <si>
+    <t>0.3842</t>
+  </si>
+  <si>
+    <t>0.0029</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>exp_estimate</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>80+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -682,17 +634,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -701,21 +647,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -723,23 +660,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -747,6 +675,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,132 +989,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="32.36328125" customWidth="1"/>
     <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="20"/>
+      <c r="H2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>45.4</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>147</v>
+      <c r="D4" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="E4">
         <v>45.2</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="28">
         <v>45.1</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="2">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.16944000000000001</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.202927</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="24">
+      <c r="F5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="28">
         <v>0.17585000000000001</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C6" s="4"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9"/>
+      <c r="G6" t="str">
+        <f>table1_calc!G2</f>
+        <v>&lt;.0001</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="J6" s="30" t="str">
+        <f>table1_calc!J2</f>
+        <v>0.0230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" t="str">
         <f>table1_calc!D2</f>
         <v>9-11th Grade (Includes 12th grade with no diploma)</v>
@@ -1162,28 +1137,29 @@
         <f>table1_calc!B2</f>
         <v>2629</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <f>table1_calc!C2</f>
-        <v>0.12486114311188579</v>
+        <v>0.1248611431118857</v>
       </c>
       <c r="E7">
         <f>table1_calc!E2</f>
         <v>502</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <f>table1_calc!F2</f>
-        <v>0.43274066904212471</v>
-      </c>
-      <c r="G7">
-        <f>table1_calc!G2</f>
+        <v>0.18507942308033351</v>
+      </c>
+      <c r="H7" s="30">
+        <f>table1_calc!H2</f>
         <v>1185</v>
       </c>
-      <c r="H7" s="12">
-        <f>table1_calc!H2</f>
-        <v>0.16353579652259004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I7" s="8">
+        <f>table1_calc!I2</f>
+        <v>0.48989561463585152</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" t="str">
         <f>table1_calc!D3</f>
         <v>College Graduate or above</v>
@@ -1192,28 +1168,29 @@
         <f>table1_calc!B3</f>
         <v>3135</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <f>table1_calc!C3</f>
-        <v>0.26255386707176359</v>
+        <v>0.26255386707176326</v>
       </c>
       <c r="E8">
         <f>table1_calc!E3</f>
         <v>319</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="8">
         <f>table1_calc!F3</f>
-        <v>0.47693075157477455</v>
-      </c>
-      <c r="G8">
-        <f>table1_calc!G3</f>
+        <v>7.9799640456080803E-2</v>
+      </c>
+      <c r="H8" s="30">
+        <f>table1_calc!H3</f>
         <v>1419</v>
       </c>
-      <c r="H8" s="12">
-        <f>table1_calc!H3</f>
-        <v>7.692342920565258E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I8" s="8">
+        <f>table1_calc!I3</f>
+        <v>0.49521765063975193</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" t="str">
         <f>table1_calc!D4</f>
         <v>High School Grad/GED or Equivalent</v>
@@ -1222,28 +1199,29 @@
         <f>table1_calc!B4</f>
         <v>3840</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <f>table1_calc!C4</f>
-        <v>0.24490627733231407</v>
+        <v>0.24490627733231404</v>
       </c>
       <c r="E9">
         <f>table1_calc!E4</f>
         <v>672</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="8">
         <f>table1_calc!F4</f>
-        <v>0.26189816929697757</v>
-      </c>
-      <c r="G9">
-        <f>table1_calc!G4</f>
+        <v>0.15581981197122155</v>
+      </c>
+      <c r="H9" s="30">
+        <f>table1_calc!H4</f>
         <v>1830</v>
       </c>
-      <c r="H9" s="12">
-        <f>table1_calc!H4</f>
-        <v>7.7853288514700261E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9" s="8">
+        <f>table1_calc!I4</f>
+        <v>0.52445694900009299</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" t="str">
         <f>table1_calc!D5</f>
         <v>Less Than 9th Grade</v>
@@ -1252,28 +1230,29 @@
         <f>table1_calc!B5</f>
         <v>2059</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <f>table1_calc!C5</f>
-        <v>6.5981532577349761E-2</v>
+        <v>6.5981532577349691E-2</v>
       </c>
       <c r="E10">
         <f>table1_calc!E5</f>
         <v>356</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="8">
         <f>table1_calc!F5</f>
-        <v>0.93827655253373843</v>
-      </c>
-      <c r="G10">
-        <f>table1_calc!G5</f>
+        <v>0.16169120180728133</v>
+      </c>
+      <c r="H10" s="30">
+        <f>table1_calc!H5</f>
         <v>841</v>
       </c>
-      <c r="H10" s="12">
-        <f>table1_calc!H5</f>
-        <v>0.35136132907319062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I10" s="8">
+        <f>table1_calc!I5</f>
+        <v>0.43136326543532649</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
         <f>table1_calc!D6</f>
         <v>Some College or AA degree</v>
@@ -1282,33 +1261,42 @@
         <f>table1_calc!B6</f>
         <v>4382</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <f>table1_calc!C6</f>
-        <v>0.30169717990668754</v>
+        <v>0.30169717990668726</v>
       </c>
       <c r="E11">
         <f>table1_calc!E6</f>
         <v>739</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <f>table1_calc!F6</f>
-        <v>0.22278046231375273</v>
-      </c>
-      <c r="G11">
-        <f>table1_calc!G6</f>
+        <v>0.14891291937343276</v>
+      </c>
+      <c r="H11" s="30">
+        <f>table1_calc!H6</f>
         <v>2040</v>
       </c>
-      <c r="H11" s="12">
-        <f>table1_calc!H6</f>
-        <v>6.4637022887462092E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I11" s="8">
+        <f>table1_calc!I6</f>
+        <v>0.51266161253613241</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="G12" t="str">
+        <f>table1_calc!G7</f>
+        <v>0.4384</v>
+      </c>
+      <c r="J12" s="30" t="str">
+        <f>table1_calc!J7</f>
+        <v>&lt;.0001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
         <f>table1_calc!D7</f>
         <v>Female</v>
@@ -1317,28 +1305,29 @@
         <f>table1_calc!B7</f>
         <v>8073</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="8">
         <f>table1_calc!C7</f>
-        <v>0.51176271206351009</v>
+        <v>0.51176271206350932</v>
       </c>
       <c r="E13">
         <f>table1_calc!E7</f>
         <v>1297</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="8">
         <f>table1_calc!F7</f>
-        <v>0.1442547675554102</v>
-      </c>
-      <c r="G13">
-        <f>table1_calc!G7</f>
+        <v>0.1354983682157096</v>
+      </c>
+      <c r="H13" s="30">
+        <f>table1_calc!H7</f>
         <v>3840</v>
       </c>
-      <c r="H13" s="12">
-        <f>table1_calc!H7</f>
-        <v>3.7312066034715763E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I13" s="8">
+        <f>table1_calc!I7</f>
+        <v>0.52375282041348603</v>
+      </c>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <f>table1_calc!D8</f>
         <v>Male</v>
@@ -1347,33 +1336,42 @@
         <f>table1_calc!B8</f>
         <v>7999</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="8">
         <f>table1_calc!C8</f>
-        <v>0.48823728793649079</v>
+        <v>0.48823728793649074</v>
       </c>
       <c r="E14">
         <f>table1_calc!E8</f>
         <v>1296</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="8">
         <f>table1_calc!F8</f>
-        <v>0.14555300154929787</v>
-      </c>
-      <c r="G14">
-        <f>table1_calc!G8</f>
+        <v>0.14067232031218899</v>
+      </c>
+      <c r="H14" s="30">
+        <f>table1_calc!H8</f>
         <v>3482</v>
       </c>
-      <c r="H14" s="12">
-        <f>table1_calc!H8</f>
-        <v>4.2651344716308E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I14" s="8">
+        <f>table1_calc!I8</f>
+        <v>0.4801643203723629</v>
+      </c>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="G15" t="str">
+        <f>table1_calc!G9</f>
+        <v>&lt;.0001</v>
+      </c>
+      <c r="J15" s="30" t="str">
+        <f>table1_calc!J9</f>
+        <v>0.0040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" t="str">
         <f>table1_calc!D9</f>
         <v>Mexican American</v>
@@ -1382,28 +1380,29 @@
         <f>table1_calc!B9</f>
         <v>2895</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="8">
         <f>table1_calc!C9</f>
-        <v>8.1401054607111875E-2</v>
+        <v>8.1401054607111903E-2</v>
       </c>
       <c r="E16">
         <f>table1_calc!E9</f>
         <v>377</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="8">
         <f>table1_calc!F9</f>
-        <v>1.0132250682125767</v>
-      </c>
-      <c r="G16">
-        <f>table1_calc!G9</f>
+        <v>0.12119582655744877</v>
+      </c>
+      <c r="H16" s="30">
+        <f>table1_calc!H9</f>
         <v>1166</v>
       </c>
-      <c r="H16" s="12">
-        <f>table1_calc!H9</f>
-        <v>0.29760454605550918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="8">
+        <f>table1_calc!I9</f>
+        <v>0.41280301368474209</v>
+      </c>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <f>table1_calc!D10</f>
         <v>Non-Hispanic Black</v>
@@ -1412,7 +1411,7 @@
         <f>table1_calc!B10</f>
         <v>3295</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <f>table1_calc!C10</f>
         <v>0.1133998269045961</v>
       </c>
@@ -1420,20 +1419,21 @@
         <f>table1_calc!E10</f>
         <v>851</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="8">
         <f>table1_calc!F10</f>
-        <v>0.33446088309818073</v>
-      </c>
-      <c r="G17">
-        <f>table1_calc!G10</f>
+        <v>0.26379346142066501</v>
+      </c>
+      <c r="H17" s="30">
+        <f>table1_calc!H10</f>
         <v>1527</v>
       </c>
-      <c r="H17" s="12">
-        <f>table1_calc!H10</f>
-        <v>0.18993898200570411</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="8">
+        <f>table1_calc!I10</f>
+        <v>0.46418942446846034</v>
+      </c>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B18" t="str">
         <f>table1_calc!D11</f>
         <v>Non-Hispanic White</v>
@@ -1442,7 +1442,7 @@
         <f>table1_calc!B11</f>
         <v>7779</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="8">
         <f>table1_calc!C11</f>
         <v>0.69979050263761855</v>
       </c>
@@ -1450,20 +1450,21 @@
         <f>table1_calc!E11</f>
         <v>987</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="8">
         <f>table1_calc!F11</f>
-        <v>0.12363546706212772</v>
-      </c>
-      <c r="G18">
-        <f>table1_calc!G11</f>
+        <v>0.11557434011829944</v>
+      </c>
+      <c r="H18" s="30">
+        <f>table1_calc!H11</f>
         <v>3817</v>
       </c>
-      <c r="H18" s="12">
-        <f>table1_calc!H11</f>
-        <v>2.699818511913054E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="8">
+        <f>table1_calc!I11</f>
+        <v>0.52922508186593697</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <f>table1_calc!D12</f>
         <v>Other Hispanic</v>
@@ -1472,7 +1473,7 @@
         <f>table1_calc!B12</f>
         <v>1371</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="8">
         <f>table1_calc!C12</f>
         <v>4.4311190171690093E-2</v>
       </c>
@@ -1480,20 +1481,21 @@
         <f>table1_calc!E12</f>
         <v>246</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="8">
         <f>table1_calc!F12</f>
-        <v>1.3878321047044873</v>
-      </c>
-      <c r="G19">
-        <f>table1_calc!G12</f>
+        <v>0.16245881458470371</v>
+      </c>
+      <c r="H19" s="30">
+        <f>table1_calc!H12</f>
         <v>519</v>
       </c>
-      <c r="H19" s="12">
-        <f>table1_calc!H12</f>
-        <v>0.54130305462876205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" s="8">
+        <f>table1_calc!I12</f>
+        <v>0.41677986616010088</v>
+      </c>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <f>table1_calc!D13</f>
         <v>Other Race - Including Multi-Racial</v>
@@ -1502,7 +1504,7 @@
         <f>table1_calc!B13</f>
         <v>732</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="8">
         <f>table1_calc!C13</f>
         <v>6.1097425678983346E-2</v>
       </c>
@@ -1510,786 +1512,702 @@
         <f>table1_calc!E13</f>
         <v>132</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="8">
         <f>table1_calc!F13</f>
-        <v>0.98342588947265941</v>
-      </c>
-      <c r="G20">
-        <f>table1_calc!G13</f>
+        <v>0.16659755285831079</v>
+      </c>
+      <c r="H20" s="30">
+        <f>table1_calc!H13</f>
         <v>293</v>
       </c>
-      <c r="H20" s="12">
-        <f>table1_calc!H13</f>
-        <v>0.36563496248657407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="8">
+        <f>table1_calc!I13</f>
+        <v>0.4485517591429351</v>
+      </c>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="G21" t="str">
+        <f>table1_calc!G14</f>
+        <v>0.0758</v>
+      </c>
+      <c r="J21" s="30" t="str">
+        <f>table1_calc!J14</f>
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B22" t="str">
         <f>table1_calc!D14</f>
-        <v>Missing</v>
+        <v>No</v>
       </c>
       <c r="C22">
         <f>table1_calc!B14</f>
-        <v>1004</v>
-      </c>
-      <c r="D22" s="12">
+        <v>15548</v>
+      </c>
+      <c r="D22" s="8">
         <f>table1_calc!C14</f>
-        <v>5.7478270001196485E-2</v>
+        <v>0.95680646352296062</v>
       </c>
       <c r="E22">
         <f>table1_calc!E14</f>
-        <v>192</v>
-      </c>
-      <c r="F22" s="12">
+        <v>2525</v>
+      </c>
+      <c r="F22" s="8">
         <f>table1_calc!F14</f>
-        <v>1.0407092205182975</v>
-      </c>
-      <c r="G22">
-        <f>table1_calc!G14</f>
-        <v>389</v>
-      </c>
-      <c r="H22" s="12">
+        <v>0.13947862971407471</v>
+      </c>
+      <c r="H22" s="30">
         <f>table1_calc!H14</f>
-        <v>0.40853161778256469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7059</v>
+      </c>
+      <c r="I22" s="8">
+        <f>table1_calc!I14</f>
+        <v>0.4986023063253211</v>
+      </c>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
         <f>table1_calc!D15</f>
-        <v>N/A (Male)</v>
+        <v>Yes</v>
       </c>
       <c r="C23">
         <f>table1_calc!B15</f>
-        <v>7999</v>
-      </c>
-      <c r="D23" s="12">
+        <v>524</v>
+      </c>
+      <c r="D23" s="8">
         <f>table1_calc!C15</f>
-        <v>0.48823728793649102</v>
+        <v>4.3193536477039905E-2</v>
       </c>
       <c r="E23">
         <f>table1_calc!E15</f>
-        <v>1296</v>
-      </c>
-      <c r="F23" s="12">
+        <v>68</v>
+      </c>
+      <c r="F23" s="8">
         <f>table1_calc!F15</f>
-        <v>0.14555300154929787</v>
-      </c>
-      <c r="G23">
-        <f>table1_calc!G15</f>
-        <v>3482</v>
-      </c>
-      <c r="H23" s="12">
+        <v>0.10586304778593553</v>
+      </c>
+      <c r="H23" s="30">
         <f>table1_calc!H15</f>
-        <v>4.2651344716308E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B24" t="str">
+        <v>263</v>
+      </c>
+      <c r="I23" s="8">
+        <f>table1_calc!I15</f>
+        <v>0.58809408584615852</v>
+      </c>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="str">
+        <f>table1_calc!G16</f>
+        <v>&lt;.0001</v>
+      </c>
+      <c r="J24" s="30" t="str">
+        <f>table1_calc!J16</f>
+        <v>0.0158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25" t="str">
         <f>table1_calc!D16</f>
+        <v>3+ ng/mL</v>
+      </c>
+      <c r="C25">
+        <f>table1_calc!B16</f>
+        <v>4191</v>
+      </c>
+      <c r="D25" s="8">
+        <f>table1_calc!C16</f>
+        <v>0.26687611939238703</v>
+      </c>
+      <c r="E25">
+        <f>table1_calc!E16</f>
+        <v>840</v>
+      </c>
+      <c r="F25" s="8">
+        <f>table1_calc!F16</f>
+        <v>0.18671484775161251</v>
+      </c>
+      <c r="H25" s="30">
+        <f>table1_calc!H16</f>
+        <v>2022</v>
+      </c>
+      <c r="I25" s="8">
+        <f>table1_calc!I16</f>
+        <v>0.52994262172719242</v>
+      </c>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B26" t="str">
+        <f>table1_calc!D17</f>
+        <v>&lt;3 ng/mL</v>
+      </c>
+      <c r="C26">
+        <f>table1_calc!B17</f>
+        <v>11881</v>
+      </c>
+      <c r="D26" s="8">
+        <f>table1_calc!C17</f>
+        <v>0.73312388060761247</v>
+      </c>
+      <c r="E26">
+        <f>table1_calc!E17</f>
+        <v>1753</v>
+      </c>
+      <c r="F26" s="8">
+        <f>table1_calc!F17</f>
+        <v>0.12031952446696824</v>
+      </c>
+      <c r="H26" s="30">
+        <f>table1_calc!H17</f>
+        <v>5300</v>
+      </c>
+      <c r="I26" s="8">
+        <f>table1_calc!I17</f>
+        <v>0.49246628406313242</v>
+      </c>
+      <c r="J26" s="30"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" t="str">
+        <f>table1_calc!G18</f>
+        <v>0.0582</v>
+      </c>
+      <c r="J27" s="30" t="str">
+        <f>table1_calc!J18</f>
+        <v>&lt;.0001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B28" t="str">
+        <f>table1_calc!D18</f>
         <v>No</v>
       </c>
-      <c r="C24">
-        <f>table1_calc!B16</f>
-        <v>6545</v>
-      </c>
-      <c r="D24" s="12">
-        <f>table1_calc!C16</f>
-        <v>0.41109090558527345</v>
-      </c>
-      <c r="E24">
-        <f>table1_calc!E16</f>
-        <v>1037</v>
-      </c>
-      <c r="F24" s="12">
-        <f>table1_calc!F16</f>
-        <v>0.18136941785547411</v>
-      </c>
-      <c r="G24">
-        <f>table1_calc!G16</f>
-        <v>3188</v>
-      </c>
-      <c r="H24" s="12">
-        <f>table1_calc!H16</f>
-        <v>4.5845925676703911E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B25" t="str">
-        <f>table1_calc!D17</f>
+      <c r="C28">
+        <f>table1_calc!B18</f>
+        <v>15806</v>
+      </c>
+      <c r="D28" s="8">
+        <f>table1_calc!C18</f>
+        <v>0.97930491602115488</v>
+      </c>
+      <c r="E28">
+        <f>table1_calc!E18</f>
+        <v>2561</v>
+      </c>
+      <c r="F28" s="8">
+        <f>table1_calc!F18</f>
+        <v>0.13899455109226444</v>
+      </c>
+      <c r="H28" s="30">
+        <f>table1_calc!H18</f>
+        <v>7158</v>
+      </c>
+      <c r="I28" s="8">
+        <f>table1_calc!I18</f>
+        <v>0.49925057241543902</v>
+      </c>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29" t="str">
+        <f>table1_calc!D19</f>
         <v>Yes</v>
       </c>
-      <c r="C25">
-        <f>table1_calc!B17</f>
-        <v>524</v>
-      </c>
-      <c r="D25" s="12">
-        <f>table1_calc!C17</f>
-        <v>4.3193536477039947E-2</v>
-      </c>
-      <c r="E25">
-        <f>table1_calc!E17</f>
-        <v>68</v>
-      </c>
-      <c r="F25" s="12">
-        <f>table1_calc!F17</f>
-        <v>2.1848944842807558</v>
-      </c>
-      <c r="G25">
-        <f>table1_calc!G17</f>
-        <v>263</v>
-      </c>
-      <c r="H25" s="12">
-        <f>table1_calc!H17</f>
-        <v>0.39354558844858495</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="C29">
+        <f>table1_calc!B19</f>
+        <v>266</v>
+      </c>
+      <c r="D29" s="8">
+        <f>table1_calc!C19</f>
+        <v>2.0695083978845247E-2</v>
+      </c>
+      <c r="E29">
+        <f>table1_calc!E19</f>
+        <v>32</v>
+      </c>
+      <c r="F29" s="8">
+        <f>table1_calc!F19</f>
+        <v>9.2203245951526319E-2</v>
+      </c>
+      <c r="H29" s="30">
+        <f>table1_calc!H19</f>
+        <v>164</v>
+      </c>
+      <c r="I29" s="8">
+        <f>table1_calc!I19</f>
+        <v>0.65471784996190641</v>
+      </c>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B27" t="str">
-        <f>table1_calc!D18</f>
-        <v>3+ ng/mL</v>
-      </c>
-      <c r="C27">
-        <f>table1_calc!B18</f>
-        <v>4191</v>
-      </c>
-      <c r="D27" s="12">
-        <f>table1_calc!C18</f>
-        <v>0.2668761193923872</v>
-      </c>
-      <c r="E27">
-        <f>table1_calc!E18</f>
-        <v>840</v>
-      </c>
-      <c r="F27" s="12">
-        <f>table1_calc!F18</f>
-        <v>0.20083704085559473</v>
-      </c>
-      <c r="G27">
-        <f>table1_calc!G18</f>
-        <v>2022</v>
-      </c>
-      <c r="H27" s="12">
-        <f>table1_calc!H18</f>
-        <v>7.0698430377132526E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B28" t="str">
-        <f>table1_calc!D19</f>
-        <v>&lt;3 ng/mL</v>
-      </c>
-      <c r="C28">
-        <f>table1_calc!B19</f>
-        <v>11881</v>
-      </c>
-      <c r="D28" s="12">
-        <f>table1_calc!C19</f>
-        <v>0.73312388060761347</v>
-      </c>
-      <c r="E28">
-        <f>table1_calc!E19</f>
-        <v>1753</v>
-      </c>
-      <c r="F28" s="12">
-        <f>table1_calc!F19</f>
-        <v>0.11333540321422844</v>
-      </c>
-      <c r="G28">
-        <f>table1_calc!G19</f>
-        <v>5300</v>
-      </c>
-      <c r="H28" s="12">
-        <f>table1_calc!H19</f>
-        <v>2.7699054178133495E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="G30" t="str">
+        <f>table1_calc!G20</f>
+        <v>&lt;.0001</v>
+      </c>
+      <c r="J30" s="30" t="str">
+        <f>table1_calc!J20</f>
+        <v>0.2493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B31" t="str">
+        <f>table1_calc!D20</f>
+        <v>No</v>
+      </c>
+      <c r="C31">
+        <f>table1_calc!B20</f>
+        <v>10262</v>
+      </c>
+      <c r="D31" s="8">
+        <f>table1_calc!C20</f>
+        <v>0.65871127222261139</v>
+      </c>
+      <c r="E31">
+        <f>table1_calc!E20</f>
+        <v>1499</v>
+      </c>
+      <c r="F31" s="8">
+        <f>table1_calc!F20</f>
+        <v>0.12617547222216483</v>
+      </c>
+      <c r="H31" s="30">
+        <f>table1_calc!H20</f>
+        <v>4702</v>
+      </c>
+      <c r="I31" s="8">
+        <f>table1_calc!I20</f>
+        <v>0.50727582796642812</v>
+      </c>
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B32" t="str">
+        <f>table1_calc!D21</f>
+        <v>Yes</v>
+      </c>
+      <c r="C32">
+        <f>table1_calc!B21</f>
+        <v>5810</v>
+      </c>
+      <c r="D32" s="8">
+        <f>table1_calc!C21</f>
+        <v>0.34128872777738872</v>
+      </c>
+      <c r="E32">
+        <f>table1_calc!E21</f>
+        <v>1094</v>
+      </c>
+      <c r="F32" s="8">
+        <f>table1_calc!F21</f>
+        <v>0.16089981849412249</v>
+      </c>
+      <c r="H32" s="30">
+        <f>table1_calc!H21</f>
+        <v>2620</v>
+      </c>
+      <c r="I32" s="8">
+        <f>table1_calc!I21</f>
+        <v>0.49319278243276737</v>
+      </c>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B30" t="str">
-        <f>table1_calc!D20</f>
-        <v>Missing</v>
-      </c>
-      <c r="C30">
-        <f>table1_calc!B20</f>
-        <v>1191</v>
-      </c>
-      <c r="D30" s="12">
-        <f>table1_calc!C20</f>
-        <v>7.1414271567199955E-2</v>
-      </c>
-      <c r="E30">
-        <f>table1_calc!E20</f>
-        <v>212</v>
-      </c>
-      <c r="F30" s="12">
-        <f>table1_calc!F20</f>
-        <v>0.88522980032501219</v>
-      </c>
-      <c r="G30">
-        <f>table1_calc!G20</f>
-        <v>486</v>
-      </c>
-      <c r="H30" s="12">
-        <f>table1_calc!H20</f>
-        <v>0.3088644192904253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B31" t="str">
-        <f>table1_calc!D21</f>
-        <v>N/A (Male)</v>
-      </c>
-      <c r="C31">
-        <f>table1_calc!B21</f>
-        <v>7999</v>
-      </c>
-      <c r="D31" s="12">
-        <f>table1_calc!C21</f>
-        <v>0.48823728793649113</v>
-      </c>
-      <c r="E31">
-        <f>table1_calc!E21</f>
-        <v>1296</v>
-      </c>
-      <c r="F31" s="12">
-        <f>table1_calc!F21</f>
-        <v>0.14555300154929787</v>
-      </c>
-      <c r="G31">
-        <f>table1_calc!G21</f>
-        <v>3482</v>
-      </c>
-      <c r="H31" s="12">
-        <f>table1_calc!H21</f>
-        <v>4.2651344716308E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B32" t="str">
+      <c r="G33" t="str">
+        <f>table1_calc!G22</f>
+        <v>0.3842</v>
+      </c>
+      <c r="J33" s="30" t="str">
+        <f>table1_calc!J22</f>
+        <v>&lt;.0001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B34" t="str">
         <f>table1_calc!D22</f>
         <v>No</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <f>table1_calc!B22</f>
-        <v>6616</v>
-      </c>
-      <c r="D32" s="12">
+        <v>7851</v>
+      </c>
+      <c r="D34" s="8">
         <f>table1_calc!C22</f>
-        <v>0.41965335651746505</v>
-      </c>
-      <c r="E32">
+        <v>0.48286906137994334</v>
+      </c>
+      <c r="E34">
         <f>table1_calc!E22</f>
-        <v>1053</v>
-      </c>
-      <c r="F32" s="12">
+        <v>1289</v>
+      </c>
+      <c r="F34" s="8">
         <f>table1_calc!F22</f>
-        <v>0.17820433721689671</v>
-      </c>
-      <c r="G32">
-        <f>table1_calc!G22</f>
-        <v>3190</v>
-      </c>
-      <c r="H32" s="12">
+        <v>0.14124217143313544</v>
+      </c>
+      <c r="H34" s="30">
         <f>table1_calc!H22</f>
-        <v>4.5028947847968126E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B33" t="str">
+        <v>4458</v>
+      </c>
+      <c r="I34" s="8">
+        <f>table1_calc!I22</f>
+        <v>0.63393402721978498</v>
+      </c>
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B35" t="str">
         <f>table1_calc!D23</f>
         <v>Yes</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <f>table1_calc!B23</f>
-        <v>266</v>
-      </c>
-      <c r="D33" s="12">
+        <v>8221</v>
+      </c>
+      <c r="D35" s="8">
         <f>table1_calc!C23</f>
-        <v>2.0695083978845289E-2</v>
-      </c>
-      <c r="E33">
+        <v>0.51713093862005666</v>
+      </c>
+      <c r="E35">
         <f>table1_calc!E23</f>
-        <v>32</v>
-      </c>
-      <c r="F33" s="12">
+        <v>1304</v>
+      </c>
+      <c r="F35" s="8">
         <f>table1_calc!F23</f>
-        <v>5.2357659140491188</v>
-      </c>
-      <c r="G33">
-        <f>table1_calc!G23</f>
-        <v>164</v>
-      </c>
-      <c r="H33" s="12">
+        <v>0.13502321735951539</v>
+      </c>
+      <c r="H35" s="30">
         <f>table1_calc!H23</f>
-        <v>0.73780101647091811</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I35" s="8">
+        <f>table1_calc!I23</f>
+        <v>0.37968712037296626</v>
+      </c>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B35" t="str">
+      <c r="G36" t="str">
+        <f>table1_calc!G24</f>
+        <v>&lt;.0001</v>
+      </c>
+      <c r="J36" s="30" t="str">
+        <f>table1_calc!J24</f>
+        <v>0.0029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B37" t="str">
         <f>table1_calc!D24</f>
-        <v>No</v>
-      </c>
-      <c r="C35">
+        <v>0-100%</v>
+      </c>
+      <c r="C37">
         <f>table1_calc!B24</f>
-        <v>10262</v>
-      </c>
-      <c r="D35" s="12">
+        <v>4316</v>
+      </c>
+      <c r="D37" s="8">
         <f>table1_calc!C24</f>
-        <v>0.65871127222261139</v>
-      </c>
-      <c r="E35">
+        <v>0.18972914844892763</v>
+      </c>
+      <c r="E37">
         <f>table1_calc!E24</f>
-        <v>1499</v>
-      </c>
-      <c r="F35" s="12">
+        <v>839</v>
+      </c>
+      <c r="F37" s="8">
         <f>table1_calc!F24</f>
-        <v>0.12031148178383044</v>
-      </c>
-      <c r="G35">
-        <f>table1_calc!G24</f>
-        <v>4702</v>
-      </c>
-      <c r="H35" s="12">
+        <v>0.18722574215352153</v>
+      </c>
+      <c r="H37" s="30">
         <f>table1_calc!H24</f>
-        <v>2.9928217895383562E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B36" t="str">
+        <v>1778</v>
+      </c>
+      <c r="I37" s="8">
+        <f>table1_calc!I24</f>
+        <v>0.45477657312446518</v>
+      </c>
+      <c r="J37" s="30"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B38" t="str">
         <f>table1_calc!D25</f>
-        <v>Yes</v>
-      </c>
-      <c r="C36">
+        <v>100-199%</v>
+      </c>
+      <c r="C38">
         <f>table1_calc!B25</f>
-        <v>5810</v>
-      </c>
-      <c r="D36" s="12">
+        <v>3962</v>
+      </c>
+      <c r="D38" s="8">
         <f>table1_calc!C25</f>
-        <v>0.34128872777738872</v>
-      </c>
-      <c r="E36">
+        <v>0.18997926591229705</v>
+      </c>
+      <c r="E38">
         <f>table1_calc!E25</f>
-        <v>1094</v>
-      </c>
-      <c r="F36" s="12">
+        <v>683</v>
+      </c>
+      <c r="F38" s="8">
         <f>table1_calc!F25</f>
-        <v>0.18212379205832899</v>
-      </c>
-      <c r="G36">
-        <f>table1_calc!G25</f>
-        <v>2620</v>
-      </c>
-      <c r="H36" s="12">
+        <v>0.16913248837822439</v>
+      </c>
+      <c r="H38" s="30">
         <f>table1_calc!H25</f>
-        <v>5.9404933093248555E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+        <v>1794</v>
+      </c>
+      <c r="I38" s="8">
+        <f>table1_calc!I25</f>
+        <v>0.50744425187901243</v>
+      </c>
+      <c r="J38" s="30"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B39" t="str">
+        <f>table1_calc!D26</f>
+        <v>200%+</v>
+      </c>
+      <c r="C39">
+        <f>table1_calc!B26</f>
+        <v>7794</v>
+      </c>
+      <c r="D39" s="8">
+        <f>table1_calc!C26</f>
+        <v>0.62029158563877551</v>
+      </c>
+      <c r="E39">
+        <f>table1_calc!E26</f>
+        <v>1071</v>
+      </c>
+      <c r="F39" s="8">
+        <f>table1_calc!F26</f>
+        <v>0.11349193345817842</v>
+      </c>
+      <c r="H39" s="30">
+        <f>table1_calc!H26</f>
+        <v>3750</v>
+      </c>
+      <c r="I39" s="8">
+        <f>table1_calc!I26</f>
+        <v>0.51553301373273619</v>
+      </c>
+      <c r="J39" s="30"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B38" t="str">
-        <f>table1_calc!D26</f>
-        <v>Missing</v>
-      </c>
-      <c r="C38">
-        <f>table1_calc!B26</f>
-        <v>4442</v>
-      </c>
-      <c r="D38" s="12">
-        <f>table1_calc!C26</f>
-        <v>0.32367441707480754</v>
-      </c>
-      <c r="E38">
-        <f>table1_calc!E26</f>
-        <v>695</v>
-      </c>
-      <c r="F38" s="12">
-        <f>table1_calc!F26</f>
-        <v>0.22935218210166777</v>
-      </c>
-      <c r="G38">
-        <f>table1_calc!G26</f>
-        <v>3270</v>
-      </c>
-      <c r="H38" s="12">
-        <f>table1_calc!H26</f>
-        <v>4.015740887290007E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B39" t="str">
+      <c r="G40" t="str">
+        <f>table1_calc!G27</f>
+        <v>&lt;.0001</v>
+      </c>
+      <c r="J40" s="30"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B41" t="str">
         <f>table1_calc!D27</f>
         <v>No</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <f>table1_calc!B27</f>
-        <v>3409</v>
-      </c>
-      <c r="D39" s="12">
+        <v>8741</v>
+      </c>
+      <c r="D41" s="8">
         <f>table1_calc!C27</f>
-        <v>0.15919464430513561</v>
-      </c>
-      <c r="E39">
+        <v>0.49753098650550087</v>
+      </c>
+      <c r="E41">
         <f>table1_calc!E27</f>
-        <v>594</v>
-      </c>
-      <c r="F39" s="12">
+        <v>1143</v>
+      </c>
+      <c r="F41" s="8">
         <f>table1_calc!F27</f>
-        <v>0.40682157851254425</v>
-      </c>
-      <c r="G39">
-        <f>table1_calc!G27</f>
-        <v>1188</v>
-      </c>
-      <c r="H39" s="12">
-        <f>table1_calc!H27</f>
-        <v>0.17506449514044789</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B40" t="str">
+        <v>0.10819496651045324</v>
+      </c>
+      <c r="J41" s="30"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B42" t="str">
         <f>table1_calc!D28</f>
         <v>Yes</v>
       </c>
-      <c r="C40">
+      <c r="C42">
         <f>table1_calc!B28</f>
-        <v>8221</v>
-      </c>
-      <c r="D40" s="12">
+        <v>7322</v>
+      </c>
+      <c r="D42" s="8">
         <f>table1_calc!C28</f>
-        <v>0.51713093862005621</v>
-      </c>
-      <c r="E40">
+        <v>0.50246901349449935</v>
+      </c>
+      <c r="E42">
         <f>table1_calc!E28</f>
-        <v>1304</v>
-      </c>
-      <c r="F40" s="12">
+        <v>1448</v>
+      </c>
+      <c r="F42" s="8">
         <f>table1_calc!F28</f>
-        <v>0.14317739671505431</v>
-      </c>
-      <c r="G40">
-        <f>table1_calc!G28</f>
-        <v>2864</v>
-      </c>
-      <c r="H40" s="12">
-        <f>table1_calc!H28</f>
-        <v>5.0935388328345002E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+        <v>0.16740678517893595</v>
+      </c>
+      <c r="J42" s="30"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B42" t="str">
+      <c r="G43" t="str">
+        <f>table1_calc!G29</f>
+        <v/>
+      </c>
+      <c r="J43" s="30" t="str">
+        <f>table1_calc!J29</f>
+        <v>&lt;.0001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B44" t="str">
         <f>table1_calc!D29</f>
-        <v>0-100%</v>
-      </c>
-      <c r="C42">
+        <v>No</v>
+      </c>
+      <c r="C44">
         <f>table1_calc!B29</f>
-        <v>4316</v>
-      </c>
-      <c r="D42" s="12">
+        <v>13460</v>
+      </c>
+      <c r="D44" s="8">
         <f>table1_calc!C29</f>
-        <v>0.18972914844892752</v>
-      </c>
-      <c r="E42">
-        <f>table1_calc!E29</f>
-        <v>839</v>
-      </c>
-      <c r="F42" s="12">
-        <f>table1_calc!F29</f>
-        <v>0.28186311462383357</v>
-      </c>
-      <c r="G42">
-        <f>table1_calc!G29</f>
-        <v>1778</v>
-      </c>
-      <c r="H42" s="12">
+        <v>0.86197470541915644</v>
+      </c>
+      <c r="G44" t="str">
+        <f>table1_calc!G30</f>
+        <v/>
+      </c>
+      <c r="H44" s="30">
         <f>table1_calc!H29</f>
-        <v>0.1158921091444377</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B43" t="str">
+        <v>5862</v>
+      </c>
+      <c r="I44" s="8">
+        <f>table1_calc!I29</f>
+        <v>0.48516092861343774</v>
+      </c>
+      <c r="J44" s="30"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B45" t="str">
         <f>table1_calc!D30</f>
-        <v>100-199%</v>
-      </c>
-      <c r="C43">
+        <v>Yes</v>
+      </c>
+      <c r="C45">
         <f>table1_calc!B30</f>
-        <v>3962</v>
-      </c>
-      <c r="D43" s="12">
+        <v>2593</v>
+      </c>
+      <c r="D45" s="8">
         <f>table1_calc!C30</f>
-        <v>0.18997926591229689</v>
-      </c>
-      <c r="E43">
-        <f>table1_calc!E30</f>
-        <v>683</v>
-      </c>
-      <c r="F43" s="12">
-        <f>table1_calc!F30</f>
-        <v>0.31149436051360679</v>
-      </c>
-      <c r="G43">
-        <f>table1_calc!G30</f>
-        <v>1794</v>
-      </c>
-      <c r="H43" s="12">
+        <v>0.13802529458084364</v>
+      </c>
+      <c r="H45" s="30">
         <f>table1_calc!H30</f>
-        <v>0.1037529368190445</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B44" t="str">
+        <v>1448</v>
+      </c>
+      <c r="I45" s="8">
+        <f>table1_calc!I30</f>
+        <v>0.60964505598207475</v>
+      </c>
+      <c r="J45" s="30"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" t="str">
+        <f>table1_calc!G31</f>
+        <v>&lt;.0001</v>
+      </c>
+      <c r="J46" s="30" t="str">
+        <f>table1_calc!J31</f>
+        <v>&lt;.0001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B47" t="str">
         <f>table1_calc!D31</f>
-        <v>200%+</v>
-      </c>
-      <c r="C44">
+        <v>No</v>
+      </c>
+      <c r="C47">
         <f>table1_calc!B31</f>
-        <v>7794</v>
-      </c>
-      <c r="D44" s="12">
+        <v>15271</v>
+      </c>
+      <c r="D47" s="8">
         <f>table1_calc!C31</f>
-        <v>0.62029158563877485</v>
-      </c>
-      <c r="E44">
+        <v>0.94257714535313109</v>
+      </c>
+      <c r="E47">
         <f>table1_calc!E31</f>
-        <v>1071</v>
-      </c>
-      <c r="F44" s="12">
+        <v>2399</v>
+      </c>
+      <c r="F47" s="8">
         <f>table1_calc!F31</f>
-        <v>0.14195719450661229</v>
-      </c>
-      <c r="G44">
-        <f>table1_calc!G31</f>
-        <v>3750</v>
-      </c>
-      <c r="H44" s="12">
+        <v>0.13344442768370821</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="30">
         <f>table1_calc!H31</f>
-        <v>3.1269636557201927E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B46" t="str">
+        <v>6561</v>
+      </c>
+      <c r="I47" s="8">
+        <f>table1_calc!I31</f>
+        <v>0.47455758973325929</v>
+      </c>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="str">
         <f>table1_calc!D32</f>
-        <v>No</v>
-      </c>
-      <c r="C46">
+        <v>Yes</v>
+      </c>
+      <c r="C48" s="7">
         <f>table1_calc!B32</f>
-        <v>8741</v>
-      </c>
-      <c r="D46" s="12">
+        <v>801</v>
+      </c>
+      <c r="D48" s="33">
         <f>table1_calc!C32</f>
-        <v>0.49753098650550065</v>
-      </c>
-      <c r="E46">
+        <v>5.7422854646869123E-2</v>
+      </c>
+      <c r="E48" s="7">
         <f>table1_calc!E32</f>
-        <v>1143</v>
-      </c>
-      <c r="F46" s="12">
+        <v>194</v>
+      </c>
+      <c r="F48" s="33">
         <f>table1_calc!F32</f>
-        <v>0.18571772250622728</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B47" t="str">
-        <f>table1_calc!D33</f>
-        <v>Yes</v>
-      </c>
-      <c r="C47">
-        <f>table1_calc!B33</f>
-        <v>7322</v>
-      </c>
-      <c r="D47" s="12">
-        <f>table1_calc!C33</f>
-        <v>0.50246901349449935</v>
-      </c>
-      <c r="E47">
-        <f>table1_calc!E33</f>
-        <v>1448</v>
-      </c>
-      <c r="F47" s="12">
-        <f>table1_calc!F33</f>
-        <v>0.1189148184844568</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B49" t="str">
-        <f>table1_calc!D34</f>
-        <v>No</v>
-      </c>
-      <c r="C49">
-        <f>table1_calc!B34</f>
-        <v>13460</v>
-      </c>
-      <c r="D49" s="12">
-        <f>table1_calc!C34</f>
-        <v>0.86197470541915644</v>
-      </c>
-      <c r="G49">
-        <f>table1_calc!G34</f>
-        <v>5862</v>
-      </c>
-      <c r="H49" s="12">
-        <f>table1_calc!H34</f>
-        <v>2.3909812280776207E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B50" t="str">
-        <f>table1_calc!D35</f>
-        <v>Yes</v>
-      </c>
-      <c r="C50">
-        <f>table1_calc!B35</f>
-        <v>2593</v>
-      </c>
-      <c r="D50" s="12">
-        <f>table1_calc!C35</f>
-        <v>0.13802529458084356</v>
-      </c>
-      <c r="G50">
-        <f>table1_calc!G35</f>
-        <v>1448</v>
-      </c>
-      <c r="H50" s="12">
-        <f>table1_calc!H35</f>
-        <v>0.1189148184844568</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B52" t="str">
-        <f>table1_calc!D36</f>
-        <v>Missing</v>
-      </c>
-      <c r="C52">
-        <f>table1_calc!B36</f>
-        <v>612</v>
-      </c>
-      <c r="D52" s="12">
-        <f>table1_calc!C36</f>
-        <v>4.0553480625368683E-2</v>
-      </c>
-      <c r="E52">
-        <f>table1_calc!E36</f>
-        <v>153</v>
-      </c>
-      <c r="F52" s="12">
-        <f>table1_calc!F36</f>
-        <v>1.1499444556588043</v>
-      </c>
-      <c r="G52">
-        <f>table1_calc!G36</f>
-        <v>548</v>
-      </c>
-      <c r="H52" s="12">
-        <f>table1_calc!H36</f>
-        <v>0.27267546982870033</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B53" t="str">
-        <f>table1_calc!D37</f>
-        <v>No</v>
-      </c>
-      <c r="C53">
-        <f>table1_calc!B37</f>
-        <v>14659</v>
-      </c>
-      <c r="D53" s="12">
-        <f>table1_calc!C37</f>
-        <v>0.90202366472776174</v>
-      </c>
-      <c r="E53">
-        <f>table1_calc!E37</f>
-        <v>2246</v>
-      </c>
-      <c r="F53" s="12">
-        <f>table1_calc!F37</f>
-        <v>8.5412835496502942E-2</v>
-      </c>
-      <c r="G53">
-        <f>table1_calc!G37</f>
-        <v>6013</v>
-      </c>
-      <c r="H53" s="12">
-        <f>table1_calc!H37</f>
-        <v>2.4353134544644169E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B54" t="str">
-        <f>table1_calc!D38</f>
-        <v>Yes</v>
-      </c>
-      <c r="C54">
-        <f>table1_calc!B38</f>
-        <v>801</v>
-      </c>
-      <c r="D54" s="12">
-        <f>table1_calc!C38</f>
-        <v>5.7422854646869054E-2</v>
-      </c>
-      <c r="E54">
-        <f>table1_calc!E38</f>
-        <v>194</v>
-      </c>
-      <c r="F54" s="12">
-        <f>table1_calc!F38</f>
-        <v>0.81627319806786525</v>
-      </c>
-      <c r="G54">
-        <f>table1_calc!G38</f>
+        <v>0.21314409695001449</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="34">
+        <f>table1_calc!H32</f>
         <v>761</v>
       </c>
-      <c r="H54" s="12">
-        <f>table1_calc!H38</f>
-        <v>0.18125588642003937</v>
-      </c>
-    </row>
+      <c r="I48" s="33">
+        <f>table1_calc!I32</f>
+        <v>0.96046982591191332</v>
+      </c>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
@@ -2299,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2310,7 +2228,7 @@
     <col min="2" max="2" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -2330,13 +2248,19 @@
         <v>34</v>
       </c>
       <c r="G1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2344,7 +2268,7 @@
         <v>2629</v>
       </c>
       <c r="C2">
-        <v>0.12486114311188579</v>
+        <v>0.1248611431118857</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -2353,16 +2277,22 @@
         <v>502</v>
       </c>
       <c r="F2">
-        <v>0.43274066904212471</v>
-      </c>
-      <c r="G2">
+        <v>0.18507942308033351</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2">
         <v>1185</v>
       </c>
-      <c r="H2">
-        <v>0.16353579652259004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <v>0.48989561463585152</v>
+      </c>
+      <c r="J2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2370,7 +2300,7 @@
         <v>3135</v>
       </c>
       <c r="C3">
-        <v>0.26255386707176359</v>
+        <v>0.26255386707176326</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -2379,16 +2309,22 @@
         <v>319</v>
       </c>
       <c r="F3">
-        <v>0.47693075157477455</v>
-      </c>
-      <c r="G3">
+        <v>7.9799640456080803E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3">
         <v>1419</v>
       </c>
-      <c r="H3">
-        <v>7.692342920565258E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>0.49521765063975193</v>
+      </c>
+      <c r="J3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2396,7 +2332,7 @@
         <v>3840</v>
       </c>
       <c r="C4">
-        <v>0.24490627733231407</v>
+        <v>0.24490627733231404</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
@@ -2405,16 +2341,22 @@
         <v>672</v>
       </c>
       <c r="F4">
-        <v>0.26189816929697757</v>
-      </c>
-      <c r="G4">
+        <v>0.15581981197122155</v>
+      </c>
+      <c r="G4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4">
         <v>1830</v>
       </c>
-      <c r="H4">
-        <v>7.7853288514700261E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <v>0.52445694900009299</v>
+      </c>
+      <c r="J4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2422,7 +2364,7 @@
         <v>2059</v>
       </c>
       <c r="C5">
-        <v>6.5981532577349761E-2</v>
+        <v>6.5981532577349691E-2</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -2431,16 +2373,22 @@
         <v>356</v>
       </c>
       <c r="F5">
-        <v>0.93827655253373843</v>
-      </c>
-      <c r="G5">
+        <v>0.16169120180728133</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5">
         <v>841</v>
       </c>
-      <c r="H5">
-        <v>0.35136132907319062</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>0.43136326543532649</v>
+      </c>
+      <c r="J5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2448,7 +2396,7 @@
         <v>4382</v>
       </c>
       <c r="C6">
-        <v>0.30169717990668754</v>
+        <v>0.30169717990668726</v>
       </c>
       <c r="D6" t="s">
         <v>42</v>
@@ -2457,16 +2405,22 @@
         <v>739</v>
       </c>
       <c r="F6">
-        <v>0.22278046231375273</v>
-      </c>
-      <c r="G6">
+        <v>0.14891291937343276</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6">
         <v>2040</v>
       </c>
-      <c r="H6">
-        <v>6.4637022887462092E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <v>0.51266161253613241</v>
+      </c>
+      <c r="J6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2474,7 +2428,7 @@
         <v>8073</v>
       </c>
       <c r="C7">
-        <v>0.51176271206351009</v>
+        <v>0.51176271206350932</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
@@ -2483,16 +2437,22 @@
         <v>1297</v>
       </c>
       <c r="F7">
-        <v>0.1442547675554102</v>
-      </c>
-      <c r="G7">
+        <v>0.1354983682157096</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7">
         <v>3840</v>
       </c>
-      <c r="H7">
-        <v>3.7312066034715763E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <v>0.52375282041348603</v>
+      </c>
+      <c r="J7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2500,7 +2460,7 @@
         <v>7999</v>
       </c>
       <c r="C8">
-        <v>0.48823728793649079</v>
+        <v>0.48823728793649074</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
@@ -2509,16 +2469,22 @@
         <v>1296</v>
       </c>
       <c r="F8">
-        <v>0.14555300154929787</v>
-      </c>
-      <c r="G8">
+        <v>0.14067232031218899</v>
+      </c>
+      <c r="G8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8">
         <v>3482</v>
       </c>
-      <c r="H8">
-        <v>4.2651344716308E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <v>0.4801643203723629</v>
+      </c>
+      <c r="J8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2526,7 +2492,7 @@
         <v>2895</v>
       </c>
       <c r="C9">
-        <v>8.1401054607111875E-2</v>
+        <v>8.1401054607111903E-2</v>
       </c>
       <c r="D9" t="s">
         <v>47</v>
@@ -2535,16 +2501,22 @@
         <v>377</v>
       </c>
       <c r="F9">
-        <v>1.0132250682125767</v>
-      </c>
-      <c r="G9">
+        <v>0.12119582655744877</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9">
         <v>1166</v>
       </c>
-      <c r="H9">
-        <v>0.29760454605550918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <v>0.41280301368474209</v>
+      </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2561,16 +2533,22 @@
         <v>851</v>
       </c>
       <c r="F10">
-        <v>0.33446088309818073</v>
-      </c>
-      <c r="G10">
+        <v>0.26379346142066501</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10">
         <v>1527</v>
       </c>
-      <c r="H10">
-        <v>0.18993898200570411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <v>0.46418942446846034</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2587,16 +2565,22 @@
         <v>987</v>
       </c>
       <c r="F11">
-        <v>0.12363546706212772</v>
-      </c>
-      <c r="G11">
+        <v>0.11557434011829944</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11">
         <v>3817</v>
       </c>
-      <c r="H11">
-        <v>2.699818511913054E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <v>0.52922508186593697</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2613,16 +2597,22 @@
         <v>246</v>
       </c>
       <c r="F12">
-        <v>1.3878321047044873</v>
-      </c>
-      <c r="G12">
+        <v>0.16245881458470371</v>
+      </c>
+      <c r="G12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12">
         <v>519</v>
       </c>
-      <c r="H12">
-        <v>0.54130305462876205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>0.41677986616010088</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2639,639 +2629,603 @@
         <v>132</v>
       </c>
       <c r="F13">
-        <v>0.98342588947265941</v>
-      </c>
-      <c r="G13">
+        <v>0.16659755285831079</v>
+      </c>
+      <c r="G13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13">
         <v>293</v>
       </c>
-      <c r="H13">
-        <v>0.36563496248657407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <v>0.4485517591429351</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
       <c r="B14">
-        <v>1004</v>
+        <v>15548</v>
       </c>
       <c r="C14">
-        <v>5.7478270001196485E-2</v>
+        <v>0.95680646352296062</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
       </c>
       <c r="E14">
-        <v>192</v>
+        <v>2525</v>
       </c>
       <c r="F14">
-        <v>1.0407092205182975</v>
-      </c>
-      <c r="G14">
-        <v>389</v>
+        <v>0.13947862971407471</v>
+      </c>
+      <c r="G14" t="s">
+        <v>121</v>
       </c>
       <c r="H14">
-        <v>0.40853161778256469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7059</v>
+      </c>
+      <c r="I14">
+        <v>0.4986023063253211</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>52</v>
       </c>
       <c r="B15">
-        <v>7999</v>
+        <v>524</v>
       </c>
       <c r="C15">
-        <v>0.48823728793649102</v>
+        <v>4.3193536477039905E-2</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
       </c>
       <c r="E15">
-        <v>1296</v>
+        <v>68</v>
       </c>
       <c r="F15">
-        <v>0.14555300154929787</v>
-      </c>
-      <c r="G15">
-        <v>3482</v>
+        <v>0.10586304778593553</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
       </c>
       <c r="H15">
-        <v>4.2651344716308E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+      <c r="I15">
+        <v>0.58809408584615852</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>6545</v>
+        <v>4191</v>
       </c>
       <c r="C16">
-        <v>0.41109090558527345</v>
+        <v>0.26687611939238703</v>
       </c>
       <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>840</v>
+      </c>
+      <c r="F16">
+        <v>0.18671484775161251</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16">
+        <v>2022</v>
+      </c>
+      <c r="I16">
+        <v>0.52994262172719242</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>55</v>
       </c>
-      <c r="E16">
-        <v>1037</v>
-      </c>
-      <c r="F16">
-        <v>0.18136941785547411</v>
-      </c>
-      <c r="G16">
-        <v>3188</v>
-      </c>
-      <c r="H16">
-        <v>4.5845925676703911E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
       <c r="B17">
-        <v>524</v>
+        <v>11881</v>
       </c>
       <c r="C17">
-        <v>4.3193536477039947E-2</v>
+        <v>0.73312388060761247</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17">
-        <v>68</v>
+        <v>1753</v>
       </c>
       <c r="F17">
-        <v>2.1848944842807558</v>
-      </c>
-      <c r="G17">
-        <v>263</v>
+        <v>0.12031952446696824</v>
+      </c>
+      <c r="G17" t="s">
+        <v>117</v>
       </c>
       <c r="H17">
-        <v>0.39354558844858495</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5300</v>
+      </c>
+      <c r="I17">
+        <v>0.49246628406313242</v>
+      </c>
+      <c r="J17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18">
-        <v>4191</v>
+        <v>15806</v>
       </c>
       <c r="C18">
-        <v>0.2668761193923872</v>
+        <v>0.97930491602115488</v>
       </c>
       <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>2561</v>
+      </c>
+      <c r="F18">
+        <v>0.13899455109226444</v>
+      </c>
+      <c r="G18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18">
+        <v>7158</v>
+      </c>
+      <c r="I18">
+        <v>0.49925057241543902</v>
+      </c>
+      <c r="J18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="E18">
-        <v>840</v>
-      </c>
-      <c r="F18">
-        <v>0.20083704085559473</v>
-      </c>
-      <c r="G18">
-        <v>2022</v>
-      </c>
-      <c r="H18">
-        <v>7.0698430377132526E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
       <c r="B19">
-        <v>11881</v>
+        <v>266</v>
       </c>
       <c r="C19">
-        <v>0.73312388060761347</v>
+        <v>2.0695083978845247E-2</v>
       </c>
       <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19">
+        <v>32</v>
+      </c>
+      <c r="F19">
+        <v>9.2203245951526319E-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19">
+        <v>164</v>
+      </c>
+      <c r="I19">
+        <v>0.65471784996190641</v>
+      </c>
+      <c r="J19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="E19">
-        <v>1753</v>
-      </c>
-      <c r="F19">
-        <v>0.11333540321422844</v>
-      </c>
-      <c r="G19">
-        <v>5300</v>
-      </c>
-      <c r="H19">
-        <v>2.7699054178133495E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
       <c r="B20">
-        <v>1191</v>
+        <v>10262</v>
       </c>
       <c r="C20">
-        <v>7.1414271567199955E-2</v>
+        <v>0.65871127222261139</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
       </c>
       <c r="E20">
-        <v>212</v>
+        <v>1499</v>
       </c>
       <c r="F20">
-        <v>0.88522980032501219</v>
-      </c>
-      <c r="G20">
-        <v>486</v>
+        <v>0.12617547222216483</v>
+      </c>
+      <c r="G20" t="s">
+        <v>117</v>
       </c>
       <c r="H20">
-        <v>0.3088644192904253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4702</v>
+      </c>
+      <c r="I20">
+        <v>0.50727582796642812</v>
+      </c>
+      <c r="J20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>7999</v>
+        <v>5810</v>
       </c>
       <c r="C21">
-        <v>0.48823728793649113</v>
+        <v>0.34128872777738872</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
       </c>
       <c r="E21">
-        <v>1296</v>
+        <v>1094</v>
       </c>
       <c r="F21">
-        <v>0.14555300154929787</v>
-      </c>
-      <c r="G21">
-        <v>3482</v>
+        <v>0.16089981849412249</v>
+      </c>
+      <c r="G21" t="s">
+        <v>117</v>
       </c>
       <c r="H21">
-        <v>4.2651344716308E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2620</v>
+      </c>
+      <c r="I21">
+        <v>0.49319278243276737</v>
+      </c>
+      <c r="J21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>60</v>
       </c>
       <c r="B22">
-        <v>6616</v>
+        <v>7851</v>
       </c>
       <c r="C22">
-        <v>0.41965335651746505</v>
+        <v>0.48286906137994334</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22">
-        <v>1053</v>
+        <v>1289</v>
       </c>
       <c r="F22">
-        <v>0.17820433721689671</v>
-      </c>
-      <c r="G22">
-        <v>3190</v>
+        <v>0.14124217143313544</v>
+      </c>
+      <c r="G22" t="s">
+        <v>126</v>
       </c>
       <c r="H22">
-        <v>4.5028947847968126E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4458</v>
+      </c>
+      <c r="I22">
+        <v>0.63393402721978498</v>
+      </c>
+      <c r="J22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>60</v>
       </c>
       <c r="B23">
-        <v>266</v>
+        <v>8221</v>
       </c>
       <c r="C23">
-        <v>2.0695083978845289E-2</v>
+        <v>0.51713093862005666</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23">
-        <v>32</v>
+        <v>1304</v>
       </c>
       <c r="F23">
-        <v>5.2357659140491188</v>
-      </c>
-      <c r="G23">
-        <v>164</v>
+        <v>0.13502321735951539</v>
+      </c>
+      <c r="G23" t="s">
+        <v>126</v>
       </c>
       <c r="H23">
-        <v>0.73780101647091811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2864</v>
+      </c>
+      <c r="I23">
+        <v>0.37968712037296626</v>
+      </c>
+      <c r="J23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>61</v>
       </c>
       <c r="B24">
-        <v>10262</v>
+        <v>4316</v>
       </c>
       <c r="C24">
-        <v>0.65871127222261139</v>
+        <v>0.18972914844892763</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>1499</v>
+        <v>839</v>
       </c>
       <c r="F24">
-        <v>0.12031148178383044</v>
-      </c>
-      <c r="G24">
-        <v>4702</v>
+        <v>0.18722574215352153</v>
+      </c>
+      <c r="G24" t="s">
+        <v>117</v>
       </c>
       <c r="H24">
-        <v>2.9928217895383562E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1778</v>
+      </c>
+      <c r="I24">
+        <v>0.45477657312446518</v>
+      </c>
+      <c r="J24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>61</v>
       </c>
       <c r="B25">
-        <v>5810</v>
+        <v>3962</v>
       </c>
       <c r="C25">
-        <v>0.34128872777738872</v>
+        <v>0.18997926591229705</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>1094</v>
+        <v>683</v>
       </c>
       <c r="F25">
-        <v>0.18212379205832899</v>
-      </c>
-      <c r="G25">
-        <v>2620</v>
+        <v>0.16913248837822439</v>
+      </c>
+      <c r="G25" t="s">
+        <v>117</v>
       </c>
       <c r="H25">
-        <v>5.9404933093248555E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1794</v>
+      </c>
+      <c r="I25">
+        <v>0.50744425187901243</v>
+      </c>
+      <c r="J25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26">
-        <v>4442</v>
+        <v>7794</v>
       </c>
       <c r="C26">
-        <v>0.32367441707480754</v>
+        <v>0.62029158563877551</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>695</v>
+        <v>1071</v>
       </c>
       <c r="F26">
-        <v>0.22935218210166777</v>
-      </c>
-      <c r="G26">
-        <v>3270</v>
+        <v>0.11349193345817842</v>
+      </c>
+      <c r="G26" t="s">
+        <v>117</v>
       </c>
       <c r="H26">
-        <v>4.015740887290007E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3750</v>
+      </c>
+      <c r="I26">
+        <v>0.51553301373273619</v>
+      </c>
+      <c r="J26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>62</v>
       </c>
       <c r="B27">
-        <v>3409</v>
+        <v>8741</v>
       </c>
       <c r="C27">
-        <v>0.15919464430513561</v>
+        <v>0.49753098650550087</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E27">
-        <v>594</v>
+        <v>1143</v>
       </c>
       <c r="F27">
-        <v>0.40682157851254425</v>
-      </c>
-      <c r="G27">
-        <v>1188</v>
-      </c>
-      <c r="H27">
-        <v>0.17506449514044789</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.10819496651045324</v>
+      </c>
+      <c r="G27" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>62</v>
       </c>
       <c r="B28">
-        <v>8221</v>
+        <v>7322</v>
       </c>
       <c r="C28">
-        <v>0.51713093862005621</v>
+        <v>0.50246901349449935</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28">
-        <v>1304</v>
+        <v>1448</v>
       </c>
       <c r="F28">
-        <v>0.14317739671505431</v>
-      </c>
-      <c r="G28">
-        <v>2864</v>
-      </c>
-      <c r="H28">
-        <v>5.0935388328345002E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.16740678517893595</v>
+      </c>
+      <c r="G28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>63</v>
       </c>
       <c r="B29">
-        <v>4316</v>
+        <v>13460</v>
       </c>
       <c r="C29">
-        <v>0.18972914844892752</v>
+        <v>0.86197470541915644</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>839</v>
-      </c>
-      <c r="F29">
-        <v>0.28186311462383357</v>
-      </c>
-      <c r="G29">
-        <v>1778</v>
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>128</v>
       </c>
       <c r="H29">
-        <v>0.1158921091444377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5862</v>
+      </c>
+      <c r="I29">
+        <v>0.48516092861343774</v>
+      </c>
+      <c r="J29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>63</v>
       </c>
       <c r="B30">
-        <v>3962</v>
+        <v>2593</v>
       </c>
       <c r="C30">
-        <v>0.18997926591229689</v>
+        <v>0.13802529458084364</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>683</v>
-      </c>
-      <c r="F30">
-        <v>0.31149436051360679</v>
-      </c>
-      <c r="G30">
-        <v>1794</v>
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>128</v>
       </c>
       <c r="H30">
-        <v>0.1037529368190445</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1448</v>
+      </c>
+      <c r="I30">
+        <v>0.60964505598207475</v>
+      </c>
+      <c r="J30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31">
-        <v>7794</v>
+        <v>15271</v>
       </c>
       <c r="C31">
-        <v>0.62029158563877485</v>
+        <v>0.94257714535313109</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E31">
-        <v>1071</v>
+        <v>2399</v>
       </c>
       <c r="F31">
-        <v>0.14195719450661229</v>
-      </c>
-      <c r="G31">
-        <v>3750</v>
+        <v>0.13344442768370821</v>
+      </c>
+      <c r="G31" t="s">
+        <v>117</v>
       </c>
       <c r="H31">
-        <v>3.1269636557201927E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6561</v>
+      </c>
+      <c r="I31">
+        <v>0.47455758973325929</v>
+      </c>
+      <c r="J31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>64</v>
       </c>
       <c r="B32">
-        <v>8741</v>
+        <v>801</v>
       </c>
       <c r="C32">
-        <v>0.49753098650550065</v>
+        <v>5.7422854646869123E-2</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32">
-        <v>1143</v>
+        <v>194</v>
       </c>
       <c r="F32">
-        <v>0.18571772250622728</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33">
-        <v>7322</v>
-      </c>
-      <c r="C33">
-        <v>0.50246901349449935</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33">
-        <v>1448</v>
-      </c>
-      <c r="F33">
-        <v>0.1189148184844568</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34">
-        <v>13460</v>
-      </c>
-      <c r="C34">
-        <v>0.86197470541915644</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34">
-        <v>5862</v>
-      </c>
-      <c r="H34">
-        <v>2.3909812280776207E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35">
-        <v>2593</v>
-      </c>
-      <c r="C35">
-        <v>0.13802529458084356</v>
-      </c>
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35">
-        <v>1448</v>
-      </c>
-      <c r="H35">
-        <v>0.1189148184844568</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36">
-        <v>612</v>
-      </c>
-      <c r="C36">
-        <v>4.0553480625368683E-2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36">
-        <v>153</v>
-      </c>
-      <c r="F36">
-        <v>1.1499444556588043</v>
-      </c>
-      <c r="G36">
-        <v>548</v>
-      </c>
-      <c r="H36">
-        <v>0.27267546982870033</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37">
-        <v>14659</v>
-      </c>
-      <c r="C37">
-        <v>0.90202366472776174</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37">
-        <v>2246</v>
-      </c>
-      <c r="F37">
-        <v>8.5412835496502942E-2</v>
-      </c>
-      <c r="G37">
-        <v>6013</v>
-      </c>
-      <c r="H37">
-        <v>2.4353134544644169E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38">
-        <v>801</v>
-      </c>
-      <c r="C38">
-        <v>5.7422854646869054E-2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38">
-        <v>194</v>
-      </c>
-      <c r="F38">
-        <v>0.81627319806786525</v>
-      </c>
-      <c r="G38">
+        <v>0.21314409695001449</v>
+      </c>
+      <c r="G32" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32">
         <v>761</v>
       </c>
-      <c r="H38">
-        <v>0.18125588642003937</v>
+      <c r="I32">
+        <v>0.96046982591191332</v>
+      </c>
+      <c r="J32" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3281,693 +3235,660 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="24.90625" customWidth="1"/>
     <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="3" t="str">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="2" t="str">
         <f>table2_calc!D2</f>
         <v>&lt;0.0001</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="str">
+        <f>table2_calc!B2</f>
+        <v>9-11th Grade (Includes 12th grade with no diploma)</v>
+      </c>
+      <c r="C5">
         <f>table2_calc!E2</f>
-        <v>9-11th Grade (Includes 12th grade with no diploma)</v>
-      </c>
-      <c r="C5" s="2">
-        <f>table2_calc!C2</f>
-        <v>0.44000978672709373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.20597082564191452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" t="str">
+        <f>table2_calc!B3</f>
+        <v>College Graduate or above</v>
+      </c>
+      <c r="C6">
         <f>table2_calc!E3</f>
-        <v>College Graduate or above</v>
-      </c>
-      <c r="C6" s="2">
-        <f>table2_calc!C3</f>
-        <v>0.3096591365990401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.13240124430882477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="str">
+        <f>table2_calc!B4</f>
+        <v>High School Grad/GED or Equivalent</v>
+      </c>
+      <c r="C7">
         <f>table2_calc!E4</f>
-        <v>High School Grad/GED or Equivalent</v>
-      </c>
-      <c r="C7" s="2">
-        <f>table2_calc!C4</f>
-        <v>0.41303603557316559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.19382391348629088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="str">
+        <f>table2_calc!B5</f>
+        <v>Less Than 9th Grade</v>
+      </c>
+      <c r="C8">
         <f>table2_calc!E5</f>
-        <v>Less Than 9th Grade</v>
-      </c>
-      <c r="C8" s="2">
-        <f>table2_calc!C5</f>
-        <v>0.43793037794309775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.20382996588496943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" t="str">
+        <f>table2_calc!B6</f>
+        <v>Some College or AA degree</v>
+      </c>
+      <c r="C9">
         <f>table2_calc!E6</f>
-        <v>Some College or AA degree</v>
-      </c>
-      <c r="C9" s="2">
-        <f>table2_calc!C6</f>
-        <v>0.39242336486993951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.1749192247358487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="str">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2" t="str">
         <f>table2_calc!D7</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
+        <f>table2_calc!B7</f>
+        <v>0-100%</v>
+      </c>
+      <c r="C11">
         <f>table2_calc!E7</f>
-        <v>0-100%</v>
-      </c>
-      <c r="C11" s="2">
-        <f>table2_calc!C7</f>
-        <v>0.4478844288564599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.1937895427237632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="str">
+        <f>table2_calc!B8</f>
+        <v>100-199%</v>
+      </c>
+      <c r="C12">
         <f>table2_calc!E8</f>
-        <v>100-199%</v>
-      </c>
-      <c r="C12" s="2">
-        <f>table2_calc!C8</f>
-        <v>0.4090881543949349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.19351952704729464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
+        <f>table2_calc!B9</f>
+        <v>200%+</v>
+      </c>
+      <c r="C13">
         <f>table2_calc!E9</f>
-        <v>200%+</v>
-      </c>
-      <c r="C13" s="2">
-        <f>table2_calc!C9</f>
-        <v>0.35851010276317385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.15984129219753163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="str">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="str">
         <f>table2_calc!D10</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
+        <f>table2_calc!B10</f>
+        <v>No</v>
+      </c>
+      <c r="C15">
         <f>table2_calc!E10</f>
-        <v>Missing</v>
-      </c>
-      <c r="C15" s="2">
-        <f>table2_calc!C10</f>
-        <v>0.40547504092767822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.19921793687669903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" t="str">
+        <f>table2_calc!B11</f>
+        <v>Yes</v>
+      </c>
+      <c r="C16">
         <f>table2_calc!E11</f>
-        <v>No</v>
-      </c>
-      <c r="C16" s="2">
-        <f>table2_calc!C11</f>
-        <v>0.49476133241707776</v>
+        <v>0.14973320176048441</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="str">
-        <f>table2_calc!E12</f>
-        <v>Yes</v>
-      </c>
-      <c r="C17" s="2">
-        <f>table2_calc!C12</f>
-        <v>0.33842027476555847</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3" t="str">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="str">
         <f>table2_calc!D13</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18" t="str">
+        <f>table2_calc!B12</f>
+        <v>Female</v>
+      </c>
+      <c r="C18">
+        <f>table2_calc!E12</f>
+        <v>0.19724557055808872</v>
+      </c>
+    </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
+        <f>table2_calc!B13</f>
+        <v>Male</v>
+      </c>
+      <c r="C19">
         <f>table2_calc!E13</f>
-        <v>Female</v>
-      </c>
-      <c r="C19" s="2">
-        <f>table2_calc!C13</f>
-        <v>0.44160891208178438</v>
+        <v>0.14851840777308145</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B20" t="str">
-        <f>table2_calc!E14</f>
-        <v>Male</v>
-      </c>
-      <c r="C20" s="2">
-        <f>table2_calc!C14</f>
-        <v>0.32483172576271202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="str">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="str">
         <f>table2_calc!D15</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B21" t="str">
+        <f>table2_calc!B14</f>
+        <v>Mexican American</v>
+      </c>
+      <c r="C21">
+        <f>table2_calc!E14</f>
+        <v>0.19827848213178553</v>
+      </c>
+    </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" t="str">
+        <f>table2_calc!B15</f>
+        <v>Non-Hispanic Black</v>
+      </c>
+      <c r="C22">
         <f>table2_calc!E15</f>
-        <v>Mexican American</v>
-      </c>
-      <c r="C22" s="2">
-        <f>table2_calc!C15</f>
-        <v>0.40157495210669342</v>
+        <v>0.2181422485776558</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
+        <f>table2_calc!B16</f>
+        <v>Non-Hispanic White</v>
+      </c>
+      <c r="C23">
         <f>table2_calc!E16</f>
-        <v>Non-Hispanic Black</v>
-      </c>
-      <c r="C23" s="2">
-        <f>table2_calc!C16</f>
-        <v>0.49906557112167471</v>
+        <v>0.16864340763245675</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="str">
+        <f>table2_calc!B17</f>
+        <v>Other Hispanic</v>
+      </c>
+      <c r="C24">
         <f>table2_calc!E17</f>
-        <v>Non-Hispanic White</v>
-      </c>
-      <c r="C24" s="2">
-        <f>table2_calc!C17</f>
-        <v>0.37717799598252866</v>
+        <v>0.17783260080896851</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
+        <f>table2_calc!B18</f>
+        <v>Other Race - Including Multi-Racial</v>
+      </c>
+      <c r="C25">
         <f>table2_calc!E18</f>
-        <v>Other Hispanic</v>
-      </c>
-      <c r="C25" s="2">
-        <f>table2_calc!C18</f>
-        <v>0.3841963615684636</v>
+        <v>0.11155327777253492</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B26" t="str">
-        <f>table2_calc!E19</f>
-        <v>Other Race - Including Multi-Racial</v>
-      </c>
-      <c r="C26" s="2">
-        <f>table2_calc!C19</f>
-        <v>0.24603710160028339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3" t="str">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="2" t="str">
         <f>table2_calc!D20</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B27" t="str">
+        <f>table2_calc!B19</f>
+        <v>20-24</v>
+      </c>
+      <c r="C27">
+        <f>table2_calc!E19</f>
+        <v>0.11617941932736202</v>
+      </c>
+    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" t="str">
+        <f>table2_calc!B20</f>
+        <v>25-29</v>
+      </c>
+      <c r="C28">
         <f>table2_calc!E20</f>
-        <v>20-24</v>
-      </c>
-      <c r="C28" s="2">
-        <f>table2_calc!C20</f>
-        <v>0.31214897785156609</v>
+        <v>0.13802863792458361</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B29" t="str">
+        <f>table2_calc!B21</f>
+        <v>30-34</v>
+      </c>
+      <c r="C29">
         <f>table2_calc!E21</f>
-        <v>25-29</v>
-      </c>
-      <c r="C29" s="2">
-        <f>table2_calc!C21</f>
-        <v>0.35326602039781346</v>
+        <v>0.148665028361228</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="str">
+        <f>table2_calc!B22</f>
+        <v>35-39</v>
+      </c>
+      <c r="C30">
         <f>table2_calc!E22</f>
-        <v>30-34</v>
-      </c>
-      <c r="C30" s="2">
-        <f>table2_calc!C22</f>
-        <v>0.33051079085146839</v>
+        <v>0.15005803473066748</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" t="str">
+        <f>table2_calc!B23</f>
+        <v>40-44</v>
+      </c>
+      <c r="C31">
         <f>table2_calc!E23</f>
-        <v>35-39</v>
-      </c>
-      <c r="C31" s="2">
-        <f>table2_calc!C23</f>
-        <v>0.33816145174012491</v>
+        <v>0.17220187687542304</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32" t="str">
+        <f>table2_calc!B24</f>
+        <v>45-49</v>
+      </c>
+      <c r="C32">
         <f>table2_calc!E24</f>
-        <v>40-44</v>
-      </c>
-      <c r="C32" s="2">
-        <f>table2_calc!C24</f>
-        <v>0.37110867368389777</v>
+        <v>0.18520774825067424</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B33" t="str">
+        <f>table2_calc!B25</f>
+        <v>50-54</v>
+      </c>
+      <c r="C33">
         <f>table2_calc!E25</f>
-        <v>45-49</v>
-      </c>
-      <c r="C33" s="2">
-        <f>table2_calc!C25</f>
-        <v>0.41304323205675048</v>
+        <v>0.18126970937797685</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B34" t="str">
+        <f>table2_calc!B26</f>
+        <v>55-59</v>
+      </c>
+      <c r="C34">
         <f>table2_calc!E26</f>
-        <v>50-54</v>
-      </c>
-      <c r="C34" s="2">
-        <f>table2_calc!C26</f>
-        <v>0.39089648983562331</v>
+        <v>0.19051478290084639</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B35" t="str">
+        <f>table2_calc!B27</f>
+        <v>60-64</v>
+      </c>
+      <c r="C35">
         <f>table2_calc!E27</f>
-        <v>55-59</v>
-      </c>
-      <c r="C35" s="2">
-        <f>table2_calc!C27</f>
-        <v>0.37146265494871394</v>
+        <v>0.22206908142089199</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B36" t="str">
+        <f>table2_calc!B28</f>
+        <v>65-69</v>
+      </c>
+      <c r="C36">
         <f>table2_calc!E28</f>
-        <v>60-64</v>
-      </c>
-      <c r="C36" s="2">
-        <f>table2_calc!C28</f>
-        <v>0.45205734989945134</v>
+        <v>0.21111759522832077</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B37" t="str">
+        <f>table2_calc!B29</f>
+        <v>70-74</v>
+      </c>
+      <c r="C37">
         <f>table2_calc!E29</f>
-        <v>65-69</v>
-      </c>
-      <c r="C37" s="2">
-        <f>table2_calc!C29</f>
-        <v>0.45511898391270111</v>
+        <v>0.22573451944605596</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" t="str">
+        <f>table2_calc!B30</f>
+        <v>75-79</v>
+      </c>
+      <c r="C38">
         <f>table2_calc!E30</f>
-        <v>70-74</v>
-      </c>
-      <c r="C38" s="2">
-        <f>table2_calc!C30</f>
-        <v>0.46615149843047488</v>
+        <v>0.21321108121631349</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B39" t="str">
+        <f>table2_calc!B31</f>
+        <v>80+</v>
+      </c>
+      <c r="C39">
         <f>table2_calc!E31</f>
-        <v>75-79</v>
-      </c>
-      <c r="C39" s="2">
-        <f>table2_calc!C31</f>
-        <v>0.4308811088606016</v>
+        <v>0.21366831476845888</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B40" t="str">
-        <f>table2_calc!E32</f>
-        <v>80+</v>
-      </c>
-      <c r="C40" s="2">
-        <f>table2_calc!C32</f>
-        <v>0.46646622557116207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3" t="str">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="2" t="str">
         <f>table2_calc!D33</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B41" t="str">
+        <f>table2_calc!B32</f>
+        <v>No</v>
+      </c>
+      <c r="C41">
+        <f>table2_calc!E32</f>
+        <v>0.16735929201872699</v>
+      </c>
+    </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42" t="str">
+        <f>table2_calc!B33</f>
+        <v>Yes</v>
+      </c>
+      <c r="C42">
         <f>table2_calc!E33</f>
-        <v>Missing</v>
-      </c>
-      <c r="C42" s="2">
-        <f>table2_calc!C33</f>
-        <v>0.42473342829893801</v>
+        <v>0.29924453419234082</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B43" t="str">
-        <f>table2_calc!E34</f>
-        <v>N/A (Male)</v>
-      </c>
-      <c r="C43" s="2">
-        <f>table2_calc!C34</f>
-        <v>0.32483172576271202</v>
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f>table2_calc!D37</f>
+        <v>&lt;0.0001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B44" t="str">
-        <f>table2_calc!E35</f>
-        <v>No</v>
-      </c>
-      <c r="C44" s="2">
-        <f>table2_calc!C35</f>
-        <v>0.42950354584615968</v>
+        <f>table2_calc!B34</f>
+        <v>3+ ng/mL</v>
+      </c>
+      <c r="C44">
+        <f>table2_calc!E34</f>
+        <v>0.17793435598692231</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" t="str">
-        <f>table2_calc!E36</f>
-        <v>Yes</v>
-      </c>
-      <c r="C45" s="2">
-        <f>table2_calc!C36</f>
-        <v>0.57458942602835883</v>
+        <f>table2_calc!B35</f>
+        <v>&lt;3 ng/mL</v>
+      </c>
+      <c r="C45">
+        <f>table2_calc!E35</f>
+        <v>0.16935347540341228</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3" t="str">
-        <f>table2_calc!D37</f>
+        <v>75</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f>table2_calc!D39</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" t="str">
-        <f>table2_calc!E37</f>
-        <v>3+ ng/mL</v>
-      </c>
-      <c r="C47" s="2">
-        <f>table2_calc!C37</f>
-        <v>0.4032064044457197</v>
+        <f>table2_calc!B36</f>
+        <v>No</v>
+      </c>
+      <c r="C47">
+        <f>table2_calc!E36</f>
+        <v>0.1696494280725977</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" t="str">
-        <f>table2_calc!E38</f>
-        <v>&lt;3 ng/mL</v>
-      </c>
-      <c r="C48" s="2">
-        <f>table2_calc!C38</f>
-        <v>0.37729194839251184</v>
+        <f>table2_calc!B37</f>
+        <v>Yes</v>
+      </c>
+      <c r="C48">
+        <f>table2_calc!E37</f>
+        <v>0.29825981522626099</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="3" t="str">
-        <f>table2_calc!D39</f>
+        <v>95</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f>table2_calc!D43</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B50" t="str">
-        <f>table2_calc!E39</f>
-        <v>Missing</v>
-      </c>
-      <c r="C50" s="2">
-        <f>table2_calc!C39</f>
-        <v>0.41676188862562952</v>
+        <f>table2_calc!B38</f>
+        <v>No</v>
+      </c>
+      <c r="C50">
+        <f>table2_calc!E38</f>
+        <v>0.1203397905293547</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B51" t="str">
-        <f>table2_calc!E40</f>
-        <v>N/A (Male)</v>
-      </c>
-      <c r="C51" s="2">
-        <f>table2_calc!C40</f>
-        <v>0.32483172576271202</v>
+        <f>table2_calc!B39</f>
+        <v>Yes</v>
+      </c>
+      <c r="C51">
+        <f>table2_calc!E39</f>
+        <v>0.34050663658667973</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B52" t="str">
-        <f>table2_calc!E41</f>
-        <v>No</v>
-      </c>
-      <c r="C52" s="2">
-        <f>table2_calc!C41</f>
-        <v>0.43646158511522049</v>
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f>table2_calc!D45</f>
+        <v>&lt;0.0001</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B53" t="str">
-        <f>table2_calc!E42</f>
+        <f>table2_calc!B40</f>
+        <v>No</v>
+      </c>
+      <c r="C53">
+        <f>table2_calc!E40</f>
+        <v>0.164080928787773</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B54" t="str">
+        <f>table2_calc!B41</f>
         <v>Yes</v>
       </c>
-      <c r="C53" s="2">
-        <f>table2_calc!C42</f>
-        <v>0.61713639461731518</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3" t="str">
-        <f>table2_calc!D43</f>
+      <c r="C54">
+        <f>table2_calc!E41</f>
+        <v>0.17956541613026022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="2" t="str">
+        <f>table2_calc!D42</f>
         <v>&lt;0.0001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B55" t="str">
-        <f>table2_calc!E43</f>
-        <v>No</v>
-      </c>
-      <c r="C55" s="2">
-        <f>table2_calc!C43</f>
-        <v>0.2795317042568769</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" t="str">
-        <f>table2_calc!E44</f>
+        <f>table2_calc!B42</f>
+        <v>No</v>
+      </c>
+      <c r="C56">
+        <f>table2_calc!E42</f>
+        <v>0.16700952555250512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B57" t="str">
+        <f>table2_calc!B43</f>
         <v>Yes</v>
       </c>
-      <c r="C56" s="2">
-        <f>table2_calc!C44</f>
-        <v>0.58683407580468716</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="3" t="str">
-        <f>table2_calc!D45</f>
+      <c r="C57">
+        <f>table2_calc!E43</f>
+        <v>0.20431568367807687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2" t="str">
+        <f>table2_calc!D44</f>
         <v>&lt;0.0001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B58" t="str">
-        <f>table2_calc!E45</f>
-        <v>No</v>
-      </c>
-      <c r="C58" s="2">
-        <f>table2_calc!C45</f>
-        <v>0.37007476165686526</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B59" t="str">
-        <f>table2_calc!E46</f>
+        <f>table2_calc!B44</f>
+        <v>No</v>
+      </c>
+      <c r="C59">
+        <f>table2_calc!E44</f>
+        <v>0.17066610399131252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B60" t="str">
+        <f>table2_calc!B45</f>
         <v>Yes</v>
       </c>
-      <c r="C59" s="2">
-        <f>table2_calc!C46</f>
-        <v>0.39893239189163154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="3" t="str">
-        <f>table2_calc!D47</f>
-        <v>&lt;0.0001</v>
+      <c r="C60">
+        <f>table2_calc!E45</f>
+        <v>0.19018583401562625</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B61" t="str">
-        <f>table2_calc!E47</f>
-        <v>No</v>
-      </c>
-      <c r="C61" s="2">
-        <f>table2_calc!C47</f>
-        <v>0.37430583548502194</v>
-      </c>
+        <f>table2_calc!E46</f>
+        <v/>
+      </c>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B62" t="str">
+        <f>table2_calc!E47</f>
+        <v/>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B63" t="str">
         <f>table2_calc!E48</f>
-        <v>Yes</v>
-      </c>
-      <c r="C62" s="2">
-        <f>table2_calc!C48</f>
-        <v>0.4489461786678155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>143</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3" t="str">
-        <f>table2_calc!D49</f>
-        <v>&lt;0.0001</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" t="str">
         <f>table2_calc!E49</f>
-        <v>Missing</v>
-      </c>
-      <c r="C64" s="2">
-        <f>table2_calc!C49</f>
-        <v>0.51068268876384093</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" t="str">
         <f>table2_calc!E50</f>
-        <v>No</v>
-      </c>
-      <c r="C65" s="2">
-        <f>table2_calc!C50</f>
-        <v>0.37574689101038272</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" t="str">
         <f>table2_calc!E51</f>
-        <v>Yes</v>
-      </c>
-      <c r="C66" s="2">
-        <f>table2_calc!C51</f>
-        <v>0.43419790414009329</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C66" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3977,8 +3898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3989,16 +3910,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" t="s">
-        <v>89</v>
+      <c r="E1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4006,17 +3930,16 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>0.44000978672709373</v>
+        <v>-1.5800207433195557</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="str">
-        <f>SUBSTITUTE(B2,A2&amp;" ","")</f>
-        <v>9-11th Grade (Includes 12th grade with no diploma)</v>
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>0.20597082564191452</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4024,17 +3947,16 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>0.3096591365990401</v>
+        <v>-2.0219182374204849</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E51" si="0">SUBSTITUTE(B3,A3&amp;" ","")</f>
-        <v>College Graduate or above</v>
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <v>0.13240124430882477</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -4042,17 +3964,16 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>0.41303603557316559</v>
+        <v>-1.6408051945355919</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>High School Grad/GED or Equivalent</v>
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <v>0.19382391348629088</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -4060,17 +3981,16 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>0.43793037794309775</v>
+        <v>-1.5904691332565286</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>Less Than 9th Grade</v>
+        <v>87</v>
+      </c>
+      <c r="E5">
+        <v>0.20382996588496943</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -4078,125 +3998,118 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>0.39242336486993951</v>
+        <v>-1.7434309845542091</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>Some College or AA degree</v>
+        <v>87</v>
+      </c>
+      <c r="E6">
+        <v>0.1749192247358487</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0.4478844288564599</v>
+        <v>-1.6409825400950253</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>0-100%</v>
+        <v>87</v>
+      </c>
+      <c r="E7">
+        <v>0.1937895427237632</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0.4090881543949349</v>
+        <v>-1.6423768566307737</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>100-199%</v>
+        <v>87</v>
+      </c>
+      <c r="E8">
+        <v>0.19351952704729464</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.35851010276317385</v>
+        <v>-1.83357387979568</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>200%+</v>
+        <v>87</v>
+      </c>
+      <c r="E9">
+        <v>0.15984129219753163</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C10">
-        <v>0.40547504092767822</v>
+        <v>-1.6133558933236649</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>Missing</v>
+        <v>87</v>
+      </c>
+      <c r="E10">
+        <v>0.19921793687669903</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>0.49476133241707776</v>
+        <v>-1.8989002235008301</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <v>87</v>
+      </c>
+      <c r="E11">
+        <v>0.14973320176048441</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C12">
-        <v>0.33842027476555847</v>
+        <v>-1.6233057754875644</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
+        <v>87</v>
+      </c>
+      <c r="E12">
+        <v>0.19724557055808872</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -4204,35 +4117,33 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>0.44160891208178438</v>
+        <v>-1.9070463703536604</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>Female</v>
+        <v>87</v>
+      </c>
+      <c r="E13">
+        <v>0.14851840777308145</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C14">
-        <v>0.32483172576271202</v>
+        <v>-1.6180827610346471</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>Male</v>
+        <v>87</v>
+      </c>
+      <c r="E14">
+        <v>0.19827848213178553</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -4240,17 +4151,16 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C15">
-        <v>0.40157495210669342</v>
+        <v>-1.5226079125780527</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>Mexican American</v>
+        <v>87</v>
+      </c>
+      <c r="E15">
+        <v>0.2181422485776558</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -4258,17 +4168,16 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C16">
-        <v>0.49906557112167471</v>
+        <v>-1.7799688072840911</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>Non-Hispanic Black</v>
+        <v>87</v>
+      </c>
+      <c r="E16">
+        <v>0.16864340763245675</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -4276,17 +4185,16 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>0.37717799598252866</v>
+        <v>-1.7269126160792356</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>Non-Hispanic White</v>
+        <v>87</v>
+      </c>
+      <c r="E17">
+        <v>0.17783260080896851</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -4294,269 +4202,254 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C18">
-        <v>0.3841963615684636</v>
+        <v>-2.1932529746488303</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>Other Hispanic</v>
+        <v>87</v>
+      </c>
+      <c r="E18">
+        <v>0.11155327777253492</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C19">
-        <v>0.24603710160028339</v>
+        <v>-2.1526195644732598</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>Other Race - Including Multi-Racial</v>
+        <v>87</v>
+      </c>
+      <c r="E19">
+        <v>0.11617941932736202</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C20">
-        <v>0.31214897785156609</v>
+        <v>-1.9802940941618412</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>20-24</v>
+        <v>87</v>
+      </c>
+      <c r="E20">
+        <v>0.13802863792458361</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="C21">
-        <v>0.35326602039781346</v>
+        <v>-1.9060596356826431</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>25-29</v>
+        <v>87</v>
+      </c>
+      <c r="E21">
+        <v>0.148665028361228</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C22">
-        <v>0.33051079085146839</v>
+        <v>-1.896733161507242</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>30-34</v>
+        <v>87</v>
+      </c>
+      <c r="E22">
+        <v>0.15005803473066748</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C23">
-        <v>0.33816145174012491</v>
+        <v>-1.7590877876552049</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>35-39</v>
+        <v>87</v>
+      </c>
+      <c r="E23">
+        <v>0.17220187687542304</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C24">
-        <v>0.37110867368389777</v>
+        <v>-1.6862771204385452</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>40-44</v>
+        <v>87</v>
+      </c>
+      <c r="E24">
+        <v>0.18520774825067424</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="C25">
-        <v>0.41304323205675048</v>
+        <v>-1.7077692497635351</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>45-49</v>
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>0.18126970937797685</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C26">
-        <v>0.39089648983562331</v>
+        <v>-1.6580254868967697</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>50-54</v>
+        <v>87</v>
+      </c>
+      <c r="E26">
+        <v>0.19051478290084639</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C27">
-        <v>0.37146265494871394</v>
+        <v>-1.5047667679439711</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>55-59</v>
+        <v>87</v>
+      </c>
+      <c r="E27">
+        <v>0.22206908142089199</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C28">
-        <v>0.45205734989945134</v>
+        <v>-1.5553399773960828</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>60-64</v>
+        <v>87</v>
+      </c>
+      <c r="E28">
+        <v>0.21111759522832077</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C29">
-        <v>0.45511898391270111</v>
+        <v>-1.4883956629187036</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>65-69</v>
+        <v>87</v>
+      </c>
+      <c r="E29">
+        <v>0.22573451944605596</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C30">
-        <v>0.46615149843047488</v>
+        <v>-1.545472612354863</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>70-74</v>
+        <v>87</v>
+      </c>
+      <c r="E30">
+        <v>0.21321108121631349</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C31">
-        <v>0.4308811088606016</v>
+        <v>-1.5433303973344004</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>75-79</v>
+        <v>87</v>
+      </c>
+      <c r="E31">
+        <v>0.21366831476845888</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="C32">
-        <v>0.46646622557116207</v>
+        <v>-1.7876123284041596</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>80+</v>
+        <v>87</v>
+      </c>
+      <c r="E32">
+        <v>0.16735929201872699</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -4564,215 +4457,203 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C33">
-        <v>0.42473342829893801</v>
+        <v>-1.2064941997322798</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>Missing</v>
+        <v>87</v>
+      </c>
+      <c r="E33">
+        <v>0.29924453419234082</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="C34">
-        <v>0.32483172576271202</v>
+        <v>-1.7263405832988736</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>N/A (Male)</v>
+        <v>87</v>
+      </c>
+      <c r="E34">
+        <v>0.17793435598692231</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="C35">
-        <v>0.42950354584615968</v>
+        <v>-1.7757671779129147</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <v>87</v>
+      </c>
+      <c r="E35">
+        <v>0.16935347540341228</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C36">
-        <v>0.57458942602835883</v>
+        <v>-1.7740211589771628</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
+        <v>87</v>
+      </c>
+      <c r="E36">
+        <v>0.1696494280725977</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C37">
-        <v>0.4032064044457197</v>
+        <v>-1.2097903091532889</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>3+ ng/mL</v>
+        <v>87</v>
+      </c>
+      <c r="E37">
+        <v>0.29825981522626099</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C38">
-        <v>0.37729194839251184</v>
+        <v>-2.1174359498482964</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;3 ng/mL</v>
+        <v>87</v>
+      </c>
+      <c r="E38">
+        <v>0.1203397905293547</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C39">
-        <v>0.41676188862562952</v>
+        <v>-1.0773206628727321</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>Missing</v>
+        <v>87</v>
+      </c>
+      <c r="E39">
+        <v>0.34050663658667973</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C40">
-        <v>0.32483172576271202</v>
+        <v>-1.8073955046552119</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>N/A (Male)</v>
+        <v>87</v>
+      </c>
+      <c r="E40">
+        <v>0.164080928787773</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="C41">
-        <v>0.43646158511522049</v>
+        <v>-1.7172157021781311</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <v>87</v>
+      </c>
+      <c r="E41">
+        <v>0.17956541613026022</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="C42">
-        <v>0.61713639461731518</v>
+        <v>-1.7897044289554997</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
+        <v>87</v>
+      </c>
+      <c r="E42">
+        <v>0.16700952555250512</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C43">
-        <v>0.2795317042568769</v>
+        <v>-1.5880890122241196</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <v>87</v>
+      </c>
+      <c r="E43">
+        <v>0.20431568367807687</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C44">
-        <v>0.58683407580468716</v>
+        <v>-1.7680462395420764</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
+        <v>87</v>
+      </c>
+      <c r="E44">
+        <v>0.17066610399131252</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -4780,125 +4661,52 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="C45">
-        <v>0.37007476165686526</v>
+        <v>-1.6597536110576876</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <v>87</v>
+      </c>
+      <c r="E45">
+        <v>0.19018583401562625</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46">
-        <v>0.39893239189163154</v>
-      </c>
-      <c r="D46" t="s">
-        <v>91</v>
-      </c>
       <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
+        <f t="shared" ref="E3:E51" si="0">SUBSTITUTE(B46,A46&amp;" ","")</f>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47">
-        <v>0.37430583548502194</v>
-      </c>
-      <c r="D47" t="s">
-        <v>91</v>
-      </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>No</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48">
-        <v>0.4489461786678155</v>
-      </c>
-      <c r="D48" t="s">
-        <v>91</v>
-      </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49">
-        <v>0.51068268876384093</v>
-      </c>
-      <c r="D49" t="s">
-        <v>91</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>Missing</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50">
-        <v>0.37574689101038272</v>
-      </c>
-      <c r="D50" t="s">
-        <v>91</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51">
-        <v>0.43419790414009329</v>
-      </c>
-      <c r="D51" t="s">
-        <v>91</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -4928,85 +4736,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="A1" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="C2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="26" t="s">
-        <v>152</v>
+      <c r="C3" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>EXP(table3_calc!B7)</f>
         <v>1.1687257975769647</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="2" t="str">
         <f>TEXT(EXP(table3_calc!C7),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!D7),"0.00")</f>
         <v>1.10--1.24</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f>EXP(table3_calc!E7)</f>
         <v>0.98981760340649894</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="2" t="str">
         <f>TEXT(EXP(table3_calc!F7),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!G7),"0.00")</f>
         <v>0.98--1.00</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f>EXP(table3_calc!H7)</f>
         <v>1.0070742451278434</v>
       </c>
-      <c r="J5" s="3" t="str">
+      <c r="J5" s="2" t="str">
         <f>TEXT(EXP(table3_calc!I7),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!J7),"0.00")</f>
         <v>1.00--1.02</v>
       </c>
@@ -5015,27 +4823,27 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>EXP(table3_calc!B9)</f>
         <v>1.1128732554283614</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="2" t="str">
         <f>TEXT(EXP(table3_calc!C9),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!D9),"0.00")</f>
         <v>1.05--1.18</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f>EXP(table3_calc!E9)</f>
         <v>0.99228553929194874</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="2" t="str">
         <f>TEXT(EXP(table3_calc!F9),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!G9),"0.00")</f>
         <v>0.99--1.00</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f>EXP(table3_calc!H8)</f>
         <v>1.0011279081292879</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="2" t="str">
         <f>TEXT(EXP(table3_calc!I8),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!J8),"0.00")</f>
         <v>1.00--1.01</v>
       </c>
@@ -5044,32 +4852,32 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f>EXP(table3_calc!B5)</f>
         <v>1.2028546574627499</v>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="2" t="str">
         <f>TEXT(EXP(table3_calc!C5),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!D5),"0.00")</f>
         <v>1.10--1.31</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f>EXP(table3_calc!E5)</f>
         <v>0.98768277213185718</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="2" t="str">
         <f>TEXT(EXP(table3_calc!F5),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!G5),"0.00")</f>
         <v>0.98--1.00</v>
       </c>
@@ -5078,19 +4886,19 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <f>EXP(table3_calc!B2)</f>
         <v>1.2749581917488177</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="2" t="str">
         <f>TEXT(EXP(table3_calc!C2),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!D2),"0.00")</f>
         <v>1.17--1.39</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f>EXP(table3_calc!E2)</f>
         <v>0.98692451940853643</v>
       </c>
-      <c r="H10" s="3" t="str">
+      <c r="H10" s="2" t="str">
         <f>TEXT(EXP(table3_calc!F2),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!G2),"0.00")</f>
         <v>0.98--1.00</v>
       </c>
@@ -5099,19 +4907,19 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f>EXP(table3_calc!B4)</f>
         <v>1.2396771679401826</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="2" t="str">
         <f>TEXT(EXP(table3_calc!C4),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!D4),"0.00")</f>
         <v>1.16--1.32</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f>EXP(table3_calc!E4)</f>
         <v>0.98967774370508665</v>
       </c>
-      <c r="H11" s="3" t="str">
+      <c r="H11" s="2" t="str">
         <f>TEXT(EXP(table3_calc!F4),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!G4),"0.00")</f>
         <v>0.98--1.00</v>
       </c>
@@ -5120,50 +4928,50 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f>EXP(table3_calc!B5)</f>
         <v>1.2028546574627499</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="2" t="str">
         <f>TEXT(EXP(table3_calc!C5),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!D5),"0.00")</f>
         <v>1.10--1.31</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <f>EXP(table3_calc!E5)</f>
         <v>0.98768277213185718</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" s="2" t="str">
         <f>TEXT(EXP(table3_calc!F5),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!G5),"0.00")</f>
         <v>0.98--1.00</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -5177,7 +4985,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Final tables.xlsx
+++ b/Final tables.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Audrey\Documents\nhanes_ses_sleep_crp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="4" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Table 3" sheetId="1" r:id="rId5"/>
     <sheet name="table3_calc" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="144">
   <si>
     <t>95% CI</t>
   </si>
@@ -275,12 +270,6 @@
   </si>
   <si>
     <t>Used sleep medication 5 or more times in last month</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -359,12 +348,117 @@
   <si>
     <t>Adjusted TIE 
 (via short sleep)</t>
+  </si>
+  <si>
+    <t>C-Reactive Protein (natural logarithm)*</t>
+  </si>
+  <si>
+    <t>*Models fit using least squares linear regression adjusted for the survey design. Adjusted model include terms for age (continuous), gender, race/ethnicity, physical activity, birth control use, HRT use, sleep medication use, plasma cotinine, and obesity (BMI &gt; 30).</t>
+  </si>
+  <si>
+    <t>ǂ TIE = Total indirect effect</t>
+  </si>
+  <si>
+    <t>Mean CRP (mg/L)</t>
+  </si>
+  <si>
+    <t>ss_p</t>
+  </si>
+  <si>
+    <t>ps_p</t>
+  </si>
+  <si>
+    <t>&lt;.0001</t>
+  </si>
+  <si>
+    <t>0.0230</t>
+  </si>
+  <si>
+    <t>0.4384</t>
+  </si>
+  <si>
+    <t>0.0040</t>
+  </si>
+  <si>
+    <t>0.0758</t>
+  </si>
+  <si>
+    <t>0.0014</t>
+  </si>
+  <si>
+    <t>0.0158</t>
+  </si>
+  <si>
+    <t>0.0582</t>
+  </si>
+  <si>
+    <t>0.2493</t>
+  </si>
+  <si>
+    <t>0.3842</t>
+  </si>
+  <si>
+    <t>0.0029</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>exp_estimate</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>80+</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>P-value*</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -374,7 +468,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -385,7 +479,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -395,7 +489,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -405,7 +499,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -414,18 +508,12 @@
     </r>
   </si>
   <si>
-    <t>C-Reactive Protein (natural logarithm)*</t>
-  </si>
-  <si>
-    <t>*Models fit using least squares linear regression adjusted for the survey design. Adjusted model include terms for age (continuous), gender, race/ethnicity, physical activity, birth control use, HRT use, sleep medication use, plasma cotinine, and obesity (BMI &gt; 30).</t>
-  </si>
-  <si>
     <r>
       <t>Adjusted TIE</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -434,7 +522,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -444,111 +532,16 @@
 (via poor sleep)</t>
     </r>
   </si>
-  <si>
-    <t>ǂ TIE = Total indirect effect</t>
-  </si>
-  <si>
-    <t>Mean CRP (mg/L)</t>
-  </si>
-  <si>
-    <t>ss_p</t>
-  </si>
-  <si>
-    <t>ps_p</t>
-  </si>
-  <si>
-    <t>&lt;.0001</t>
-  </si>
-  <si>
-    <t>0.0230</t>
-  </si>
-  <si>
-    <t>0.4384</t>
-  </si>
-  <si>
-    <t>0.0040</t>
-  </si>
-  <si>
-    <t>0.0758</t>
-  </si>
-  <si>
-    <t>0.0014</t>
-  </si>
-  <si>
-    <t>0.0158</t>
-  </si>
-  <si>
-    <t>0.0582</t>
-  </si>
-  <si>
-    <t>0.2493</t>
-  </si>
-  <si>
-    <t>0.3842</t>
-  </si>
-  <si>
-    <t>0.0029</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-  <si>
-    <t>effect</t>
-  </si>
-  <si>
-    <t>exp_estimate</t>
-  </si>
-  <si>
-    <t>20-24</t>
-  </si>
-  <si>
-    <t>25-29</t>
-  </si>
-  <si>
-    <t>30-34</t>
-  </si>
-  <si>
-    <t>35-39</t>
-  </si>
-  <si>
-    <t>40-44</t>
-  </si>
-  <si>
-    <t>45-49</t>
-  </si>
-  <si>
-    <t>50-54</t>
-  </si>
-  <si>
-    <t>55-59</t>
-  </si>
-  <si>
-    <t>60-64</t>
-  </si>
-  <si>
-    <t>65-69</t>
-  </si>
-  <si>
-    <t>70-74</t>
-  </si>
-  <si>
-    <t>75-79</t>
-  </si>
-  <si>
-    <t>80+</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,8 +557,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -573,14 +587,14 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -634,28 +648,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,51 +662,133 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,7 +1062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -989,1229 +1070,1417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.36328125" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28" style="7" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="20" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="27" t="s">
+      <c r="G3" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="J3" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="30">
+        <v>16654</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+      <c r="E4" s="30">
+        <v>7322</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0.502</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="30">
+        <v>2593</v>
+      </c>
+      <c r="I4" s="32">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="36">
+        <v>45.4</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="36">
+        <v>45.2</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="38">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="H5" s="21">
+        <v>45.1</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="40">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="22">
+        <v>0.16944000000000001</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.202927</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C4">
-        <v>45.4</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4">
-        <v>45.2</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="28">
-        <v>45.1</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.16944000000000001</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.202927</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="G6" s="38">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H6" s="42">
+        <v>0.17585000000000001</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="28">
-        <v>0.17585000000000001</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="J6" s="38">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="9"/>
-      <c r="G6" t="str">
+      <c r="B7" s="34"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="38" t="str">
         <f>table1_calc!G2</f>
         <v>&lt;.0001</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="str">
+      <c r="H7" s="25"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="41" t="str">
         <f>table1_calc!J2</f>
         <v>0.0230</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B7" t="str">
+    <row r="8" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="34" t="str">
         <f>table1_calc!D2</f>
         <v>9-11th Grade (Includes 12th grade with no diploma)</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="13">
         <f>table1_calc!B2</f>
         <v>2629</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="11">
         <f>table1_calc!C2</f>
         <v>0.1248611431118857</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="13">
         <f>table1_calc!E2</f>
         <v>502</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="11">
         <f>table1_calc!F2</f>
         <v>0.18507942308033351</v>
       </c>
-      <c r="H7" s="30">
+      <c r="G8" s="38"/>
+      <c r="H8" s="26">
         <f>table1_calc!H2</f>
         <v>1185</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I8" s="11">
         <f>table1_calc!I2</f>
         <v>0.48989561463585152</v>
       </c>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B8" t="str">
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="34" t="str">
         <f>table1_calc!D3</f>
         <v>College Graduate or above</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="13">
         <f>table1_calc!B3</f>
         <v>3135</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="11">
         <f>table1_calc!C3</f>
         <v>0.26255386707176326</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="13">
         <f>table1_calc!E3</f>
         <v>319</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="11">
         <f>table1_calc!F3</f>
         <v>7.9799640456080803E-2</v>
       </c>
-      <c r="H8" s="30">
+      <c r="G9" s="38"/>
+      <c r="H9" s="26">
         <f>table1_calc!H3</f>
         <v>1419</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="11">
         <f>table1_calc!I3</f>
         <v>0.49521765063975193</v>
       </c>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B9" t="str">
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="34" t="str">
         <f>table1_calc!D4</f>
         <v>High School Grad/GED or Equivalent</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="13">
         <f>table1_calc!B4</f>
         <v>3840</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="11">
         <f>table1_calc!C4</f>
         <v>0.24490627733231404</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="13">
         <f>table1_calc!E4</f>
         <v>672</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="11">
         <f>table1_calc!F4</f>
         <v>0.15581981197122155</v>
       </c>
-      <c r="H9" s="30">
+      <c r="G10" s="38"/>
+      <c r="H10" s="26">
         <f>table1_calc!H4</f>
         <v>1830</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="11">
         <f>table1_calc!I4</f>
         <v>0.52445694900009299</v>
       </c>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" t="str">
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="34" t="str">
         <f>table1_calc!D5</f>
         <v>Less Than 9th Grade</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="13">
         <f>table1_calc!B5</f>
         <v>2059</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="11">
         <f>table1_calc!C5</f>
         <v>6.5981532577349691E-2</v>
       </c>
-      <c r="E10">
+      <c r="E11" s="13">
         <f>table1_calc!E5</f>
         <v>356</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="11">
         <f>table1_calc!F5</f>
         <v>0.16169120180728133</v>
       </c>
-      <c r="H10" s="30">
+      <c r="G11" s="38"/>
+      <c r="H11" s="26">
         <f>table1_calc!H5</f>
         <v>841</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I11" s="11">
         <f>table1_calc!I5</f>
         <v>0.43136326543532649</v>
       </c>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" t="str">
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="34" t="str">
         <f>table1_calc!D6</f>
         <v>Some College or AA degree</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="13">
         <f>table1_calc!B6</f>
         <v>4382</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="11">
         <f>table1_calc!C6</f>
         <v>0.30169717990668726</v>
       </c>
-      <c r="E11">
+      <c r="E12" s="13">
         <f>table1_calc!E6</f>
         <v>739</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="11">
         <f>table1_calc!F6</f>
         <v>0.14891291937343276</v>
       </c>
-      <c r="H11" s="30">
+      <c r="G12" s="38"/>
+      <c r="H12" s="26">
         <f>table1_calc!H6</f>
         <v>2040</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I12" s="11">
         <f>table1_calc!I6</f>
         <v>0.51266161253613241</v>
       </c>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="J12" s="41"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G12" t="str">
+      <c r="B13" s="34"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="38" t="str">
         <f>table1_calc!G7</f>
         <v>0.4384</v>
       </c>
-      <c r="J12" s="30" t="str">
+      <c r="H13" s="26"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="41" t="str">
         <f>table1_calc!J7</f>
         <v>&lt;.0001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" t="str">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="34" t="str">
         <f>table1_calc!D7</f>
         <v>Female</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="13">
         <f>table1_calc!B7</f>
         <v>8073</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="11">
         <f>table1_calc!C7</f>
         <v>0.51176271206350932</v>
       </c>
-      <c r="E13">
+      <c r="E14" s="13">
         <f>table1_calc!E7</f>
         <v>1297</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="11">
         <f>table1_calc!F7</f>
         <v>0.1354983682157096</v>
       </c>
-      <c r="H13" s="30">
+      <c r="G14" s="38"/>
+      <c r="H14" s="26">
         <f>table1_calc!H7</f>
         <v>3840</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="11">
         <f>table1_calc!I7</f>
         <v>0.52375282041348603</v>
       </c>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" t="str">
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="34" t="str">
         <f>table1_calc!D8</f>
         <v>Male</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="13">
         <f>table1_calc!B8</f>
         <v>7999</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="11">
         <f>table1_calc!C8</f>
         <v>0.48823728793649074</v>
       </c>
-      <c r="E14">
+      <c r="E15" s="13">
         <f>table1_calc!E8</f>
         <v>1296</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="11">
         <f>table1_calc!F8</f>
         <v>0.14067232031218899</v>
       </c>
-      <c r="H14" s="30">
+      <c r="G15" s="38"/>
+      <c r="H15" s="26">
         <f>table1_calc!H8</f>
         <v>3482</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15" s="11">
         <f>table1_calc!I8</f>
         <v>0.4801643203723629</v>
       </c>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G15" t="str">
+      <c r="B16" s="34"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="38" t="str">
         <f>table1_calc!G9</f>
         <v>&lt;.0001</v>
       </c>
-      <c r="J15" s="30" t="str">
+      <c r="H16" s="26"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="41" t="str">
         <f>table1_calc!J9</f>
         <v>0.0040</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" t="str">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="34" t="str">
         <f>table1_calc!D9</f>
         <v>Mexican American</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="13">
         <f>table1_calc!B9</f>
         <v>2895</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="11">
         <f>table1_calc!C9</f>
         <v>8.1401054607111903E-2</v>
       </c>
-      <c r="E16">
+      <c r="E17" s="13">
         <f>table1_calc!E9</f>
         <v>377</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="11">
         <f>table1_calc!F9</f>
         <v>0.12119582655744877</v>
       </c>
-      <c r="H16" s="30">
+      <c r="G17" s="38"/>
+      <c r="H17" s="26">
         <f>table1_calc!H9</f>
         <v>1166</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="11">
         <f>table1_calc!I9</f>
         <v>0.41280301368474209</v>
       </c>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B17" t="str">
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="34" t="str">
         <f>table1_calc!D10</f>
         <v>Non-Hispanic Black</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="13">
         <f>table1_calc!B10</f>
         <v>3295</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="11">
         <f>table1_calc!C10</f>
         <v>0.1133998269045961</v>
       </c>
-      <c r="E17">
+      <c r="E18" s="13">
         <f>table1_calc!E10</f>
         <v>851</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="11">
         <f>table1_calc!F10</f>
         <v>0.26379346142066501</v>
       </c>
-      <c r="H17" s="30">
+      <c r="G18" s="38"/>
+      <c r="H18" s="26">
         <f>table1_calc!H10</f>
         <v>1527</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="11">
         <f>table1_calc!I10</f>
         <v>0.46418942446846034</v>
       </c>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B18" t="str">
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="34" t="str">
         <f>table1_calc!D11</f>
         <v>Non-Hispanic White</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="13">
         <f>table1_calc!B11</f>
         <v>7779</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="11">
         <f>table1_calc!C11</f>
         <v>0.69979050263761855</v>
       </c>
-      <c r="E18">
+      <c r="E19" s="13">
         <f>table1_calc!E11</f>
         <v>987</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="11">
         <f>table1_calc!F11</f>
         <v>0.11557434011829944</v>
       </c>
-      <c r="H18" s="30">
+      <c r="G19" s="38"/>
+      <c r="H19" s="26">
         <f>table1_calc!H11</f>
         <v>3817</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I19" s="11">
         <f>table1_calc!I11</f>
         <v>0.52922508186593697</v>
       </c>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B19" t="str">
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="34" t="str">
         <f>table1_calc!D12</f>
         <v>Other Hispanic</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="13">
         <f>table1_calc!B12</f>
         <v>1371</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="11">
         <f>table1_calc!C12</f>
         <v>4.4311190171690093E-2</v>
       </c>
-      <c r="E19">
+      <c r="E20" s="13">
         <f>table1_calc!E12</f>
         <v>246</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="11">
         <f>table1_calc!F12</f>
         <v>0.16245881458470371</v>
       </c>
-      <c r="H19" s="30">
+      <c r="G20" s="38"/>
+      <c r="H20" s="26">
         <f>table1_calc!H12</f>
         <v>519</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I20" s="11">
         <f>table1_calc!I12</f>
         <v>0.41677986616010088</v>
       </c>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B20" t="str">
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="34" t="str">
         <f>table1_calc!D13</f>
         <v>Other Race - Including Multi-Racial</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="13">
         <f>table1_calc!B13</f>
         <v>732</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="11">
         <f>table1_calc!C13</f>
         <v>6.1097425678983346E-2</v>
       </c>
-      <c r="E20">
+      <c r="E21" s="13">
         <f>table1_calc!E13</f>
         <v>132</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="11">
         <f>table1_calc!F13</f>
         <v>0.16659755285831079</v>
       </c>
-      <c r="H20" s="30">
+      <c r="G21" s="38"/>
+      <c r="H21" s="26">
         <f>table1_calc!H13</f>
         <v>293</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I21" s="11">
         <f>table1_calc!I13</f>
         <v>0.4485517591429351</v>
       </c>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="J21" s="41"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G21" t="str">
+      <c r="B22" s="34"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="38" t="str">
         <f>table1_calc!G14</f>
         <v>0.0758</v>
       </c>
-      <c r="J21" s="30" t="str">
+      <c r="H22" s="26"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="41" t="str">
         <f>table1_calc!J14</f>
         <v>0.0014</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B22" t="str">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="34" t="str">
         <f>table1_calc!D14</f>
         <v>No</v>
       </c>
-      <c r="C22">
+      <c r="C23" s="13">
         <f>table1_calc!B14</f>
         <v>15548</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="11">
         <f>table1_calc!C14</f>
         <v>0.95680646352296062</v>
       </c>
-      <c r="E22">
+      <c r="E23" s="13">
         <f>table1_calc!E14</f>
         <v>2525</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23" s="11">
         <f>table1_calc!F14</f>
         <v>0.13947862971407471</v>
       </c>
-      <c r="H22" s="30">
+      <c r="G23" s="38"/>
+      <c r="H23" s="26">
         <f>table1_calc!H14</f>
         <v>7059</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I23" s="11">
         <f>table1_calc!I14</f>
         <v>0.4986023063253211</v>
       </c>
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B23" t="str">
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="34" t="str">
         <f>table1_calc!D15</f>
         <v>Yes</v>
       </c>
-      <c r="C23">
+      <c r="C24" s="13">
         <f>table1_calc!B15</f>
         <v>524</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="11">
         <f>table1_calc!C15</f>
         <v>4.3193536477039905E-2</v>
       </c>
-      <c r="E23">
+      <c r="E24" s="13">
         <f>table1_calc!E15</f>
         <v>68</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="11">
         <f>table1_calc!F15</f>
         <v>0.10586304778593553</v>
       </c>
-      <c r="H23" s="30">
+      <c r="G24" s="38"/>
+      <c r="H24" s="26">
         <f>table1_calc!H15</f>
         <v>263</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I24" s="11">
         <f>table1_calc!I15</f>
         <v>0.58809408584615852</v>
       </c>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G24" t="str">
+      <c r="B25" s="34"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="38" t="str">
         <f>table1_calc!G16</f>
         <v>&lt;.0001</v>
       </c>
-      <c r="J24" s="30" t="str">
+      <c r="H25" s="26"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="41" t="str">
         <f>table1_calc!J16</f>
         <v>0.0158</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B25" t="str">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="34" t="str">
         <f>table1_calc!D16</f>
         <v>3+ ng/mL</v>
       </c>
-      <c r="C25">
+      <c r="C26" s="13">
         <f>table1_calc!B16</f>
         <v>4191</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="11">
         <f>table1_calc!C16</f>
         <v>0.26687611939238703</v>
       </c>
-      <c r="E25">
+      <c r="E26" s="13">
         <f>table1_calc!E16</f>
         <v>840</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="11">
         <f>table1_calc!F16</f>
         <v>0.18671484775161251</v>
       </c>
-      <c r="H25" s="30">
+      <c r="G26" s="38"/>
+      <c r="H26" s="26">
         <f>table1_calc!H16</f>
         <v>2022</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I26" s="11">
         <f>table1_calc!I16</f>
         <v>0.52994262172719242</v>
       </c>
-      <c r="J25" s="30"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B26" t="str">
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="34" t="str">
         <f>table1_calc!D17</f>
         <v>&lt;3 ng/mL</v>
       </c>
-      <c r="C26">
+      <c r="C27" s="13">
         <f>table1_calc!B17</f>
         <v>11881</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="11">
         <f>table1_calc!C17</f>
         <v>0.73312388060761247</v>
       </c>
-      <c r="E26">
+      <c r="E27" s="13">
         <f>table1_calc!E17</f>
         <v>1753</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F27" s="11">
         <f>table1_calc!F17</f>
         <v>0.12031952446696824</v>
       </c>
-      <c r="H26" s="30">
+      <c r="G27" s="38"/>
+      <c r="H27" s="26">
         <f>table1_calc!H17</f>
         <v>5300</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I27" s="11">
         <f>table1_calc!I17</f>
         <v>0.49246628406313242</v>
       </c>
-      <c r="J26" s="30"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="J27" s="41"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G27" t="str">
+      <c r="B28" s="34"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="38" t="str">
         <f>table1_calc!G18</f>
         <v>0.0582</v>
       </c>
-      <c r="J27" s="30" t="str">
+      <c r="H28" s="26"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="41" t="str">
         <f>table1_calc!J18</f>
         <v>&lt;.0001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B28" t="str">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="34" t="str">
         <f>table1_calc!D18</f>
         <v>No</v>
       </c>
-      <c r="C28">
+      <c r="C29" s="13">
         <f>table1_calc!B18</f>
         <v>15806</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="11">
         <f>table1_calc!C18</f>
         <v>0.97930491602115488</v>
       </c>
-      <c r="E28">
+      <c r="E29" s="13">
         <f>table1_calc!E18</f>
         <v>2561</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F29" s="11">
         <f>table1_calc!F18</f>
         <v>0.13899455109226444</v>
       </c>
-      <c r="H28" s="30">
+      <c r="G29" s="38"/>
+      <c r="H29" s="26">
         <f>table1_calc!H18</f>
         <v>7158</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I29" s="11">
         <f>table1_calc!I18</f>
         <v>0.49925057241543902</v>
       </c>
-      <c r="J28" s="30"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B29" t="str">
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="34" t="str">
         <f>table1_calc!D19</f>
         <v>Yes</v>
       </c>
-      <c r="C29">
+      <c r="C30" s="13">
         <f>table1_calc!B19</f>
         <v>266</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="11">
         <f>table1_calc!C19</f>
         <v>2.0695083978845247E-2</v>
       </c>
-      <c r="E29">
+      <c r="E30" s="13">
         <f>table1_calc!E19</f>
         <v>32</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="11">
         <f>table1_calc!F19</f>
         <v>9.2203245951526319E-2</v>
       </c>
-      <c r="H29" s="30">
+      <c r="G30" s="38"/>
+      <c r="H30" s="26">
         <f>table1_calc!H19</f>
         <v>164</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I30" s="11">
         <f>table1_calc!I19</f>
         <v>0.65471784996190641</v>
       </c>
-      <c r="J29" s="30"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="J30" s="41"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G30" t="str">
+      <c r="B31" s="34"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="38" t="str">
         <f>table1_calc!G20</f>
         <v>&lt;.0001</v>
       </c>
-      <c r="J30" s="30" t="str">
+      <c r="H31" s="26"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="41" t="str">
         <f>table1_calc!J20</f>
         <v>0.2493</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B31" t="str">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="34" t="str">
         <f>table1_calc!D20</f>
         <v>No</v>
       </c>
-      <c r="C31">
+      <c r="C32" s="13">
         <f>table1_calc!B20</f>
         <v>10262</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="11">
         <f>table1_calc!C20</f>
         <v>0.65871127222261139</v>
       </c>
-      <c r="E31">
+      <c r="E32" s="13">
         <f>table1_calc!E20</f>
         <v>1499</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F32" s="11">
         <f>table1_calc!F20</f>
         <v>0.12617547222216483</v>
       </c>
-      <c r="H31" s="30">
+      <c r="G32" s="38"/>
+      <c r="H32" s="26">
         <f>table1_calc!H20</f>
         <v>4702</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I32" s="11">
         <f>table1_calc!I20</f>
         <v>0.50727582796642812</v>
       </c>
-      <c r="J31" s="30"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B32" t="str">
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="34" t="str">
         <f>table1_calc!D21</f>
         <v>Yes</v>
       </c>
-      <c r="C32">
+      <c r="C33" s="13">
         <f>table1_calc!B21</f>
         <v>5810</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="11">
         <f>table1_calc!C21</f>
         <v>0.34128872777738872</v>
       </c>
-      <c r="E32">
+      <c r="E33" s="13">
         <f>table1_calc!E21</f>
         <v>1094</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F33" s="11">
         <f>table1_calc!F21</f>
         <v>0.16089981849412249</v>
       </c>
-      <c r="H32" s="30">
+      <c r="G33" s="38"/>
+      <c r="H33" s="26">
         <f>table1_calc!H21</f>
         <v>2620</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I33" s="11">
         <f>table1_calc!I21</f>
         <v>0.49319278243276737</v>
       </c>
-      <c r="J32" s="30"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G33" t="str">
+      <c r="B34" s="34"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="38" t="str">
         <f>table1_calc!G22</f>
         <v>0.3842</v>
       </c>
-      <c r="J33" s="30" t="str">
+      <c r="H34" s="26"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="41" t="str">
         <f>table1_calc!J22</f>
         <v>&lt;.0001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B34" t="str">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="34" t="str">
         <f>table1_calc!D22</f>
         <v>No</v>
       </c>
-      <c r="C34">
+      <c r="C35" s="13">
         <f>table1_calc!B22</f>
         <v>7851</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="11">
         <f>table1_calc!C22</f>
         <v>0.48286906137994334</v>
       </c>
-      <c r="E34">
+      <c r="E35" s="13">
         <f>table1_calc!E22</f>
         <v>1289</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F35" s="11">
         <f>table1_calc!F22</f>
         <v>0.14124217143313544</v>
       </c>
-      <c r="H34" s="30">
+      <c r="G35" s="38"/>
+      <c r="H35" s="26">
         <f>table1_calc!H22</f>
         <v>4458</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I35" s="11">
         <f>table1_calc!I22</f>
         <v>0.63393402721978498</v>
       </c>
-      <c r="J34" s="30"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B35" t="str">
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="34" t="str">
         <f>table1_calc!D23</f>
         <v>Yes</v>
       </c>
-      <c r="C35">
+      <c r="C36" s="13">
         <f>table1_calc!B23</f>
         <v>8221</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="11">
         <f>table1_calc!C23</f>
         <v>0.51713093862005666</v>
       </c>
-      <c r="E35">
+      <c r="E36" s="13">
         <f>table1_calc!E23</f>
         <v>1304</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F36" s="11">
         <f>table1_calc!F23</f>
         <v>0.13502321735951539</v>
       </c>
-      <c r="H35" s="30">
+      <c r="G36" s="38"/>
+      <c r="H36" s="26">
         <f>table1_calc!H23</f>
         <v>2864</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I36" s="11">
         <f>table1_calc!I23</f>
         <v>0.37968712037296626</v>
       </c>
-      <c r="J35" s="30"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="J36" s="41"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G36" t="str">
+      <c r="B37" s="34"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="38" t="str">
         <f>table1_calc!G24</f>
         <v>&lt;.0001</v>
       </c>
-      <c r="J36" s="30" t="str">
+      <c r="H37" s="26"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="41" t="str">
         <f>table1_calc!J24</f>
         <v>0.0029</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B37" t="str">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="34" t="str">
         <f>table1_calc!D24</f>
         <v>0-100%</v>
       </c>
-      <c r="C37">
+      <c r="C38" s="13">
         <f>table1_calc!B24</f>
         <v>4316</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="11">
         <f>table1_calc!C24</f>
         <v>0.18972914844892763</v>
       </c>
-      <c r="E37">
+      <c r="E38" s="13">
         <f>table1_calc!E24</f>
         <v>839</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F38" s="11">
         <f>table1_calc!F24</f>
         <v>0.18722574215352153</v>
       </c>
-      <c r="H37" s="30">
+      <c r="G38" s="38"/>
+      <c r="H38" s="26">
         <f>table1_calc!H24</f>
         <v>1778</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I38" s="11">
         <f>table1_calc!I24</f>
         <v>0.45477657312446518</v>
       </c>
-      <c r="J37" s="30"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B38" t="str">
+      <c r="J38" s="41"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="34" t="str">
         <f>table1_calc!D25</f>
         <v>100-199%</v>
       </c>
-      <c r="C38">
+      <c r="C39" s="13">
         <f>table1_calc!B25</f>
         <v>3962</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="11">
         <f>table1_calc!C25</f>
         <v>0.18997926591229705</v>
       </c>
-      <c r="E38">
+      <c r="E39" s="13">
         <f>table1_calc!E25</f>
         <v>683</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F39" s="11">
         <f>table1_calc!F25</f>
         <v>0.16913248837822439</v>
       </c>
-      <c r="H38" s="30">
+      <c r="G39" s="38"/>
+      <c r="H39" s="26">
         <f>table1_calc!H25</f>
         <v>1794</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I39" s="11">
         <f>table1_calc!I25</f>
         <v>0.50744425187901243</v>
       </c>
-      <c r="J38" s="30"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B39" t="str">
+      <c r="J39" s="41"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="34" t="str">
         <f>table1_calc!D26</f>
         <v>200%+</v>
       </c>
-      <c r="C39">
+      <c r="C40" s="13">
         <f>table1_calc!B26</f>
         <v>7794</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="11">
         <f>table1_calc!C26</f>
         <v>0.62029158563877551</v>
       </c>
-      <c r="E39">
+      <c r="E40" s="13">
         <f>table1_calc!E26</f>
         <v>1071</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="11">
         <f>table1_calc!F26</f>
         <v>0.11349193345817842</v>
       </c>
-      <c r="H39" s="30">
+      <c r="G40" s="38"/>
+      <c r="H40" s="26">
         <f>table1_calc!H26</f>
         <v>3750</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I40" s="11">
         <f>table1_calc!I26</f>
         <v>0.51553301373273619</v>
       </c>
-      <c r="J39" s="30"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="J40" s="41"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G40" t="str">
+      <c r="B41" s="34"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="38" t="str">
         <f>table1_calc!G27</f>
         <v>&lt;.0001</v>
       </c>
-      <c r="J40" s="30"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B41" t="str">
+      <c r="H41" s="26"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="34" t="str">
         <f>table1_calc!D27</f>
         <v>No</v>
       </c>
-      <c r="C41">
+      <c r="C42" s="13">
         <f>table1_calc!B27</f>
         <v>8741</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="11">
         <f>table1_calc!C27</f>
         <v>0.49753098650550087</v>
       </c>
-      <c r="E41">
+      <c r="E42" s="13">
         <f>table1_calc!E27</f>
         <v>1143</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F42" s="11">
         <f>table1_calc!F27</f>
         <v>0.10819496651045324</v>
       </c>
-      <c r="J41" s="30"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B42" t="str">
+      <c r="G42" s="38"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="41"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="34" t="str">
         <f>table1_calc!D28</f>
         <v>Yes</v>
       </c>
-      <c r="C42">
+      <c r="C43" s="13">
         <f>table1_calc!B28</f>
         <v>7322</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="11">
         <f>table1_calc!C28</f>
         <v>0.50246901349449935</v>
       </c>
-      <c r="E42">
+      <c r="E43" s="13">
         <f>table1_calc!E28</f>
         <v>1448</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F43" s="11">
         <f>table1_calc!F28</f>
         <v>0.16740678517893595</v>
       </c>
-      <c r="J42" s="30"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="G43" s="38"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="41"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G43" t="str">
+      <c r="B44" s="34"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="38" t="str">
         <f>table1_calc!G29</f>
         <v/>
       </c>
-      <c r="J43" s="30" t="str">
+      <c r="H44" s="26"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="41" t="str">
         <f>table1_calc!J29</f>
         <v>&lt;.0001</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B44" t="str">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="34" t="str">
         <f>table1_calc!D29</f>
         <v>No</v>
       </c>
-      <c r="C44">
+      <c r="C45" s="13">
         <f>table1_calc!B29</f>
         <v>13460</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D45" s="11">
         <f>table1_calc!C29</f>
         <v>0.86197470541915644</v>
       </c>
-      <c r="G44" t="str">
+      <c r="E45" s="13"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="38" t="str">
         <f>table1_calc!G30</f>
         <v/>
       </c>
-      <c r="H44" s="30">
+      <c r="H45" s="26">
         <f>table1_calc!H29</f>
         <v>5862</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I45" s="11">
         <f>table1_calc!I29</f>
         <v>0.48516092861343774</v>
       </c>
-      <c r="J44" s="30"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B45" t="str">
+      <c r="J45" s="41"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="34" t="str">
         <f>table1_calc!D30</f>
         <v>Yes</v>
       </c>
-      <c r="C45">
+      <c r="C46" s="13">
         <f>table1_calc!B30</f>
         <v>2593</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="11">
         <f>table1_calc!C30</f>
         <v>0.13802529458084364</v>
       </c>
-      <c r="H45" s="30">
+      <c r="E46" s="13"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="26">
         <f>table1_calc!H30</f>
         <v>1448</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I46" s="11">
         <f>table1_calc!I30</f>
         <v>0.60964505598207475</v>
       </c>
-      <c r="J45" s="30"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="J46" s="41"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G46" t="str">
+      <c r="B47" s="34"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="38" t="str">
         <f>table1_calc!G31</f>
         <v>&lt;.0001</v>
       </c>
-      <c r="J46" s="30" t="str">
+      <c r="H47" s="26"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="41" t="str">
         <f>table1_calc!J31</f>
         <v>&lt;.0001</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B47" t="str">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="34" t="str">
         <f>table1_calc!D31</f>
         <v>No</v>
       </c>
-      <c r="C47">
+      <c r="C48" s="13">
         <f>table1_calc!B31</f>
         <v>15271</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="11">
         <f>table1_calc!C31</f>
         <v>0.94257714535313109</v>
       </c>
-      <c r="E47">
+      <c r="E48" s="13">
         <f>table1_calc!E31</f>
         <v>2399</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F48" s="11">
         <f>table1_calc!F31</f>
         <v>0.13344442768370821</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="30">
+      <c r="G48" s="20"/>
+      <c r="H48" s="26">
         <f>table1_calc!H31</f>
         <v>6561</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I48" s="11">
         <f>table1_calc!I31</f>
         <v>0.47455758973325929</v>
       </c>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="str">
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="33" t="str">
         <f>table1_calc!D32</f>
         <v>Yes</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C49" s="12">
         <f>table1_calc!B32</f>
         <v>801</v>
       </c>
-      <c r="D48" s="33">
+      <c r="D49" s="27">
         <f>table1_calc!C32</f>
         <v>5.7422854646869123E-2</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="12">
         <f>table1_calc!E32</f>
         <v>194</v>
       </c>
-      <c r="F48" s="33">
+      <c r="F49" s="27">
         <f>table1_calc!F32</f>
         <v>0.21314409695001449</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="34">
+      <c r="G49" s="37"/>
+      <c r="H49" s="28">
         <f>table1_calc!H32</f>
         <v>761</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I49" s="27">
         <f>table1_calc!I32</f>
         <v>0.96046982591191332</v>
       </c>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="J49" s="37"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2223,9 +2492,9 @@
       <selection sqref="A1:J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -2248,7 +2517,7 @@
         <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H1" t="s">
         <v>35</v>
@@ -2257,7 +2526,7 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2280,7 +2549,7 @@
         <v>0.18507942308033351</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H2">
         <v>1185</v>
@@ -2289,7 +2558,7 @@
         <v>0.48989561463585152</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2312,7 +2581,7 @@
         <v>7.9799640456080803E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H3">
         <v>1419</v>
@@ -2321,7 +2590,7 @@
         <v>0.49521765063975193</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2344,7 +2613,7 @@
         <v>0.15581981197122155</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H4">
         <v>1830</v>
@@ -2353,7 +2622,7 @@
         <v>0.52445694900009299</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2376,7 +2645,7 @@
         <v>0.16169120180728133</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H5">
         <v>841</v>
@@ -2385,7 +2654,7 @@
         <v>0.43136326543532649</v>
       </c>
       <c r="J5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2408,7 +2677,7 @@
         <v>0.14891291937343276</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H6">
         <v>2040</v>
@@ -2417,7 +2686,7 @@
         <v>0.51266161253613241</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2440,7 +2709,7 @@
         <v>0.1354983682157096</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H7">
         <v>3840</v>
@@ -2449,7 +2718,7 @@
         <v>0.52375282041348603</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -2472,7 +2741,7 @@
         <v>0.14067232031218899</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H8">
         <v>3482</v>
@@ -2481,7 +2750,7 @@
         <v>0.4801643203723629</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -2504,7 +2773,7 @@
         <v>0.12119582655744877</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H9">
         <v>1166</v>
@@ -2513,7 +2782,7 @@
         <v>0.41280301368474209</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2536,7 +2805,7 @@
         <v>0.26379346142066501</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H10">
         <v>1527</v>
@@ -2545,7 +2814,7 @@
         <v>0.46418942446846034</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -2568,7 +2837,7 @@
         <v>0.11557434011829944</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H11">
         <v>3817</v>
@@ -2577,7 +2846,7 @@
         <v>0.52922508186593697</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -2600,7 +2869,7 @@
         <v>0.16245881458470371</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H12">
         <v>519</v>
@@ -2609,7 +2878,7 @@
         <v>0.41677986616010088</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -2632,7 +2901,7 @@
         <v>0.16659755285831079</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H13">
         <v>293</v>
@@ -2641,7 +2910,7 @@
         <v>0.4485517591429351</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -2664,7 +2933,7 @@
         <v>0.13947862971407471</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H14">
         <v>7059</v>
@@ -2673,7 +2942,7 @@
         <v>0.4986023063253211</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -2696,7 +2965,7 @@
         <v>0.10586304778593553</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H15">
         <v>263</v>
@@ -2705,7 +2974,7 @@
         <v>0.58809408584615852</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -2728,7 +2997,7 @@
         <v>0.18671484775161251</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H16">
         <v>2022</v>
@@ -2737,7 +3006,7 @@
         <v>0.52994262172719242</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -2760,7 +3029,7 @@
         <v>0.12031952446696824</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H17">
         <v>5300</v>
@@ -2769,7 +3038,7 @@
         <v>0.49246628406313242</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -2792,7 +3061,7 @@
         <v>0.13899455109226444</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H18">
         <v>7158</v>
@@ -2801,7 +3070,7 @@
         <v>0.49925057241543902</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -2824,7 +3093,7 @@
         <v>9.2203245951526319E-2</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H19">
         <v>164</v>
@@ -2833,7 +3102,7 @@
         <v>0.65471784996190641</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -2856,7 +3125,7 @@
         <v>0.12617547222216483</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H20">
         <v>4702</v>
@@ -2865,7 +3134,7 @@
         <v>0.50727582796642812</v>
       </c>
       <c r="J20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -2888,7 +3157,7 @@
         <v>0.16089981849412249</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H21">
         <v>2620</v>
@@ -2897,7 +3166,7 @@
         <v>0.49319278243276737</v>
       </c>
       <c r="J21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -2920,7 +3189,7 @@
         <v>0.14124217143313544</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H22">
         <v>4458</v>
@@ -2929,7 +3198,7 @@
         <v>0.63393402721978498</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -2952,7 +3221,7 @@
         <v>0.13502321735951539</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H23">
         <v>2864</v>
@@ -2961,7 +3230,7 @@
         <v>0.37968712037296626</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -2984,7 +3253,7 @@
         <v>0.18722574215352153</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H24">
         <v>1778</v>
@@ -2993,7 +3262,7 @@
         <v>0.45477657312446518</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -3016,7 +3285,7 @@
         <v>0.16913248837822439</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H25">
         <v>1794</v>
@@ -3025,7 +3294,7 @@
         <v>0.50744425187901243</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -3048,7 +3317,7 @@
         <v>0.11349193345817842</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H26">
         <v>3750</v>
@@ -3057,7 +3326,7 @@
         <v>0.51553301373273619</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -3080,10 +3349,10 @@
         <v>0.10819496651045324</v>
       </c>
       <c r="G27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -3106,10 +3375,10 @@
         <v>0.16740678517893595</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -3126,7 +3395,7 @@
         <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H29">
         <v>5862</v>
@@ -3135,7 +3404,7 @@
         <v>0.48516092861343774</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -3152,7 +3421,7 @@
         <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H30">
         <v>1448</v>
@@ -3161,7 +3430,7 @@
         <v>0.60964505598207475</v>
       </c>
       <c r="J30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -3184,7 +3453,7 @@
         <v>0.13344442768370821</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H31">
         <v>6561</v>
@@ -3193,7 +3462,7 @@
         <v>0.47455758973325929</v>
       </c>
       <c r="J31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -3216,7 +3485,7 @@
         <v>0.21314409695001449</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H32">
         <v>761</v>
@@ -3225,7 +3494,7 @@
         <v>0.96046982591191332</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3237,648 +3506,761 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection sqref="A1:D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="2" t="str">
+      <c r="B4" s="56"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="51" t="str">
         <f>table2_calc!D2</f>
         <v>&lt;0.0001</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" t="str">
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46" t="str">
         <f>table2_calc!B2</f>
         <v>9-11th Grade (Includes 12th grade with no diploma)</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="52">
         <f>table2_calc!E2</f>
         <v>0.20597082564191452</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" t="str">
+      <c r="D5" s="51"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46" t="str">
         <f>table2_calc!B3</f>
         <v>College Graduate or above</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="52">
         <f>table2_calc!E3</f>
         <v>0.13240124430882477</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" t="str">
+      <c r="D6" s="51"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46" t="str">
         <f>table2_calc!B4</f>
         <v>High School Grad/GED or Equivalent</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="52">
         <f>table2_calc!E4</f>
         <v>0.19382391348629088</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" t="str">
+      <c r="D7" s="51"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46" t="str">
         <f>table2_calc!B5</f>
         <v>Less Than 9th Grade</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="52">
         <f>table2_calc!E5</f>
         <v>0.20382996588496943</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" t="str">
+      <c r="D8" s="51"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46" t="str">
         <f>table2_calc!B6</f>
         <v>Some College or AA degree</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="52">
         <f>table2_calc!E6</f>
         <v>0.1749192247358487</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="D9" s="51"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="B10" s="57"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="51" t="str">
         <f>table2_calc!D7</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" t="str">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46" t="str">
         <f>table2_calc!B7</f>
         <v>0-100%</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="52">
         <f>table2_calc!E7</f>
         <v>0.1937895427237632</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" t="str">
+      <c r="D11" s="51"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46" t="str">
         <f>table2_calc!B8</f>
         <v>100-199%</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="52">
         <f>table2_calc!E8</f>
         <v>0.19351952704729464</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" t="str">
+      <c r="D12" s="51"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46" t="str">
         <f>table2_calc!B9</f>
         <v>200%+</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="52">
         <f>table2_calc!E9</f>
         <v>0.15984129219753163</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="2" t="str">
+      <c r="D13" s="51"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="51" t="str">
         <f>table2_calc!D10</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" t="str">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46" t="str">
         <f>table2_calc!B10</f>
         <v>No</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="52">
         <f>table2_calc!E10</f>
         <v>0.19921793687669903</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" t="str">
+      <c r="D15" s="51"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46" t="str">
         <f>table2_calc!B11</f>
         <v>Yes</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="52">
         <f>table2_calc!E11</f>
         <v>0.14973320176048441</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="D16" s="51"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="B17" s="57"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="51" t="str">
         <f>table2_calc!D13</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B18" t="str">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46" t="str">
         <f>table2_calc!B12</f>
         <v>Female</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="52">
         <f>table2_calc!E12</f>
         <v>0.19724557055808872</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B19" t="str">
+      <c r="D18" s="51"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46" t="str">
         <f>table2_calc!B13</f>
         <v>Male</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="52">
         <f>table2_calc!E13</f>
         <v>0.14851840777308145</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="D19" s="51"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="B20" s="57"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="51" t="str">
         <f>table2_calc!D15</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B21" t="str">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46" t="str">
         <f>table2_calc!B14</f>
         <v>Mexican American</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="52">
         <f>table2_calc!E14</f>
         <v>0.19827848213178553</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B22" t="str">
+      <c r="D21" s="51"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46" t="str">
         <f>table2_calc!B15</f>
         <v>Non-Hispanic Black</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="52">
         <f>table2_calc!E15</f>
         <v>0.2181422485776558</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B23" t="str">
+      <c r="D22" s="51"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46" t="str">
         <f>table2_calc!B16</f>
         <v>Non-Hispanic White</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="52">
         <f>table2_calc!E16</f>
         <v>0.16864340763245675</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B24" t="str">
+      <c r="D23" s="51"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46" t="str">
         <f>table2_calc!B17</f>
         <v>Other Hispanic</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="52">
         <f>table2_calc!E17</f>
         <v>0.17783260080896851</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B25" t="str">
+      <c r="D24" s="51"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46" t="str">
         <f>table2_calc!B18</f>
         <v>Other Race - Including Multi-Racial</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="52">
         <f>table2_calc!E18</f>
         <v>0.11155327777253492</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="2" t="str">
+      <c r="D25" s="51"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="51" t="str">
         <f>table2_calc!D20</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B27" t="str">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46" t="str">
         <f>table2_calc!B19</f>
         <v>20-24</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="52">
         <f>table2_calc!E19</f>
         <v>0.11617941932736202</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B28" t="str">
+      <c r="D27" s="51"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46" t="str">
         <f>table2_calc!B20</f>
         <v>25-29</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="52">
         <f>table2_calc!E20</f>
         <v>0.13802863792458361</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B29" t="str">
+      <c r="D28" s="51"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46" t="str">
         <f>table2_calc!B21</f>
         <v>30-34</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="52">
         <f>table2_calc!E21</f>
         <v>0.148665028361228</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B30" t="str">
+      <c r="D29" s="51"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46" t="str">
         <f>table2_calc!B22</f>
         <v>35-39</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="52">
         <f>table2_calc!E22</f>
         <v>0.15005803473066748</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31" t="str">
+      <c r="D30" s="51"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46" t="str">
         <f>table2_calc!B23</f>
         <v>40-44</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="52">
         <f>table2_calc!E23</f>
         <v>0.17220187687542304</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B32" t="str">
+      <c r="D31" s="51"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46" t="str">
         <f>table2_calc!B24</f>
         <v>45-49</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="52">
         <f>table2_calc!E24</f>
         <v>0.18520774825067424</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B33" t="str">
+      <c r="D32" s="51"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46" t="str">
         <f>table2_calc!B25</f>
         <v>50-54</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="52">
         <f>table2_calc!E25</f>
         <v>0.18126970937797685</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B34" t="str">
+      <c r="D33" s="51"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46" t="str">
         <f>table2_calc!B26</f>
         <v>55-59</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="52">
         <f>table2_calc!E26</f>
         <v>0.19051478290084639</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B35" t="str">
+      <c r="D34" s="51"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46" t="str">
         <f>table2_calc!B27</f>
         <v>60-64</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="52">
         <f>table2_calc!E27</f>
         <v>0.22206908142089199</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B36" t="str">
+      <c r="D35" s="51"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46" t="str">
         <f>table2_calc!B28</f>
         <v>65-69</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="52">
         <f>table2_calc!E28</f>
         <v>0.21111759522832077</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B37" t="str">
+      <c r="D36" s="51"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46" t="str">
         <f>table2_calc!B29</f>
         <v>70-74</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="52">
         <f>table2_calc!E29</f>
         <v>0.22573451944605596</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B38" t="str">
+      <c r="D37" s="51"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46" t="str">
         <f>table2_calc!B30</f>
         <v>75-79</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="52">
         <f>table2_calc!E30</f>
         <v>0.21321108121631349</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B39" t="str">
+      <c r="D38" s="51"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46" t="str">
         <f>table2_calc!B31</f>
         <v>80+</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="52">
         <f>table2_calc!E31</f>
         <v>0.21366831476845888</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="2" t="str">
+      <c r="D39" s="51"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="57"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="51" t="str">
         <f>table2_calc!D33</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B41" t="str">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46" t="str">
         <f>table2_calc!B32</f>
         <v>No</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="52">
         <f>table2_calc!E32</f>
         <v>0.16735929201872699</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B42" t="str">
+      <c r="D41" s="51"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46" t="str">
         <f>table2_calc!B33</f>
         <v>Yes</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="52">
         <f>table2_calc!E33</f>
         <v>0.29924453419234082</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="2" t="str">
+      <c r="D42" s="51"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="57"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="51" t="str">
         <f>table2_calc!D37</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B44" t="str">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46" t="str">
         <f>table2_calc!B34</f>
         <v>3+ ng/mL</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="52">
         <f>table2_calc!E34</f>
         <v>0.17793435598692231</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B45" t="str">
+      <c r="D44" s="51"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46" t="str">
         <f>table2_calc!B35</f>
         <v>&lt;3 ng/mL</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="52">
         <f>table2_calc!E35</f>
         <v>0.16935347540341228</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="D45" s="51"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="2" t="str">
+      <c r="B46" s="57"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="51" t="str">
         <f>table2_calc!D39</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B47" t="str">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46" t="str">
         <f>table2_calc!B36</f>
         <v>No</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="52">
         <f>table2_calc!E36</f>
         <v>0.1696494280725977</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48" t="str">
+      <c r="D47" s="51"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46" t="str">
         <f>table2_calc!B37</f>
         <v>Yes</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="52">
         <f>table2_calc!E37</f>
         <v>0.29825981522626099</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="2" t="str">
+      <c r="D48" s="51"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="57"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="51" t="str">
         <f>table2_calc!D43</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B50" t="str">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46" t="str">
         <f>table2_calc!B38</f>
         <v>No</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="52">
         <f>table2_calc!E38</f>
         <v>0.1203397905293547</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B51" t="str">
+      <c r="D50" s="51"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46" t="str">
         <f>table2_calc!B39</f>
         <v>Yes</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="52">
         <f>table2_calc!E39</f>
         <v>0.34050663658667973</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="D51" s="51"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="2" t="str">
+      <c r="B52" s="57"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="51" t="str">
         <f>table2_calc!D45</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B53" t="str">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46" t="str">
         <f>table2_calc!B40</f>
         <v>No</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="52">
         <f>table2_calc!E40</f>
         <v>0.164080928787773</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B54" t="str">
+      <c r="D53" s="51"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46" t="str">
         <f>table2_calc!B41</f>
         <v>Yes</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="52">
         <f>table2_calc!E41</f>
         <v>0.17956541613026022</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="2" t="str">
+      <c r="D54" s="51"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="57"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="51" t="str">
         <f>table2_calc!D42</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B56" t="str">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46" t="str">
         <f>table2_calc!B42</f>
         <v>No</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="52">
         <f>table2_calc!E42</f>
         <v>0.16700952555250512</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B57" t="str">
+      <c r="D56" s="51"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46" t="str">
         <f>table2_calc!B43</f>
         <v>Yes</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="52">
         <f>table2_calc!E43</f>
         <v>0.20431568367807687</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="2" t="str">
+      <c r="D57" s="51"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="51" t="str">
         <f>table2_calc!D44</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B59" t="str">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46" t="str">
         <f>table2_calc!B44</f>
         <v>No</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="52">
         <f>table2_calc!E44</f>
         <v>0.17066610399131252</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B60" t="str">
+      <c r="D59" s="51"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="53"/>
+      <c r="B60" s="53" t="str">
         <f>table2_calc!B45</f>
         <v>Yes</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="55">
         <f>table2_calc!E45</f>
         <v>0.19018583401562625</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D60" s="54"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="str">
         <f>table2_calc!E46</f>
         <v/>
       </c>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" t="str">
         <f>table2_calc!E47</f>
         <v/>
       </c>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" t="str">
         <f>table2_calc!E48</f>
         <v/>
       </c>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" t="str">
         <f>table2_calc!E49</f>
         <v/>
       </c>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="str">
         <f>table2_calc!E50</f>
         <v/>
       </c>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="str">
         <f>table2_calc!E51</f>
         <v/>
@@ -3886,9 +4268,22 @@
       <c r="C66" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="15">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3902,27 +4297,27 @@
       <selection sqref="A1:E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3936,7 +4331,7 @@
         <v>-1.5800207433195557</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>0.20597082564191452</v>
@@ -3953,7 +4348,7 @@
         <v>-2.0219182374204849</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>0.13240124430882477</v>
@@ -3970,7 +4365,7 @@
         <v>-1.6408051945355919</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>0.19382391348629088</v>
@@ -3987,7 +4382,7 @@
         <v>-1.5904691332565286</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <v>0.20382996588496943</v>
@@ -4004,7 +4399,7 @@
         <v>-1.7434309845542091</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>0.1749192247358487</v>
@@ -4021,7 +4416,7 @@
         <v>-1.6409825400950253</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>0.1937895427237632</v>
@@ -4038,7 +4433,7 @@
         <v>-1.6423768566307737</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>0.19351952704729464</v>
@@ -4055,7 +4450,7 @@
         <v>-1.83357387979568</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>0.15984129219753163</v>
@@ -4072,7 +4467,7 @@
         <v>-1.6133558933236649</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>0.19921793687669903</v>
@@ -4089,7 +4484,7 @@
         <v>-1.8989002235008301</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11">
         <v>0.14973320176048441</v>
@@ -4106,7 +4501,7 @@
         <v>-1.6233057754875644</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12">
         <v>0.19724557055808872</v>
@@ -4123,7 +4518,7 @@
         <v>-1.9070463703536604</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13">
         <v>0.14851840777308145</v>
@@ -4140,7 +4535,7 @@
         <v>-1.6180827610346471</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14">
         <v>0.19827848213178553</v>
@@ -4157,7 +4552,7 @@
         <v>-1.5226079125780527</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <v>0.2181422485776558</v>
@@ -4174,7 +4569,7 @@
         <v>-1.7799688072840911</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16">
         <v>0.16864340763245675</v>
@@ -4191,7 +4586,7 @@
         <v>-1.7269126160792356</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E17">
         <v>0.17783260080896851</v>
@@ -4208,7 +4603,7 @@
         <v>-2.1932529746488303</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E18">
         <v>0.11155327777253492</v>
@@ -4216,16 +4611,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C19">
         <v>-2.1526195644732598</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>0.11617941932736202</v>
@@ -4233,16 +4628,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C20">
         <v>-1.9802940941618412</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E20">
         <v>0.13802863792458361</v>
@@ -4250,16 +4645,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C21">
         <v>-1.9060596356826431</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E21">
         <v>0.148665028361228</v>
@@ -4267,16 +4662,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C22">
         <v>-1.896733161507242</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E22">
         <v>0.15005803473066748</v>
@@ -4284,16 +4679,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C23">
         <v>-1.7590877876552049</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23">
         <v>0.17220187687542304</v>
@@ -4301,16 +4696,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C24">
         <v>-1.6862771204385452</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E24">
         <v>0.18520774825067424</v>
@@ -4318,16 +4713,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C25">
         <v>-1.7077692497635351</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E25">
         <v>0.18126970937797685</v>
@@ -4335,16 +4730,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C26">
         <v>-1.6580254868967697</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E26">
         <v>0.19051478290084639</v>
@@ -4352,16 +4747,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C27">
         <v>-1.5047667679439711</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E27">
         <v>0.22206908142089199</v>
@@ -4369,16 +4764,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C28">
         <v>-1.5553399773960828</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E28">
         <v>0.21111759522832077</v>
@@ -4386,16 +4781,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C29">
         <v>-1.4883956629187036</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E29">
         <v>0.22573451944605596</v>
@@ -4403,16 +4798,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C30">
         <v>-1.545472612354863</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E30">
         <v>0.21321108121631349</v>
@@ -4420,16 +4815,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C31">
         <v>-1.5433303973344004</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <v>0.21366831476845888</v>
@@ -4446,7 +4841,7 @@
         <v>-1.7876123284041596</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E32">
         <v>0.16735929201872699</v>
@@ -4463,7 +4858,7 @@
         <v>-1.2064941997322798</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33">
         <v>0.29924453419234082</v>
@@ -4480,7 +4875,7 @@
         <v>-1.7263405832988736</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E34">
         <v>0.17793435598692231</v>
@@ -4497,7 +4892,7 @@
         <v>-1.7757671779129147</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E35">
         <v>0.16935347540341228</v>
@@ -4514,7 +4909,7 @@
         <v>-1.7740211589771628</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E36">
         <v>0.1696494280725977</v>
@@ -4531,7 +4926,7 @@
         <v>-1.2097903091532889</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E37">
         <v>0.29825981522626099</v>
@@ -4548,7 +4943,7 @@
         <v>-2.1174359498482964</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E38">
         <v>0.1203397905293547</v>
@@ -4565,7 +4960,7 @@
         <v>-1.0773206628727321</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E39">
         <v>0.34050663658667973</v>
@@ -4582,7 +4977,7 @@
         <v>-1.8073955046552119</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E40">
         <v>0.164080928787773</v>
@@ -4599,7 +4994,7 @@
         <v>-1.7172157021781311</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E41">
         <v>0.17956541613026022</v>
@@ -4616,7 +5011,7 @@
         <v>-1.7897044289554997</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E42">
         <v>0.16700952555250512</v>
@@ -4633,7 +5028,7 @@
         <v>-1.5880890122241196</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E43">
         <v>0.20431568367807687</v>
@@ -4650,7 +5045,7 @@
         <v>-1.7680462395420764</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E44">
         <v>0.17066610399131252</v>
@@ -4667,7 +5062,7 @@
         <v>-1.6597536110576876</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E45">
         <v>0.19018583401562625</v>
@@ -4675,7 +5070,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E46" t="str">
-        <f t="shared" ref="E3:E51" si="0">SUBSTITUTE(B46,A46&amp;" ","")</f>
+        <f t="shared" ref="E46:E51" si="0">SUBSTITUTE(B46,A46&amp;" ","")</f>
         <v/>
       </c>
     </row>
@@ -4718,275 +5113,346 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="18" t="s">
+    <row r="1" spans="1:10" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="22">
         <f>EXP(table3_calc!B7)</f>
         <v>1.1687257975769647</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="38" t="str">
         <f>TEXT(EXP(table3_calc!C7),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!D7),"0.00")</f>
         <v>1.10--1.24</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="22">
         <f>EXP(table3_calc!E7)</f>
         <v>0.98981760340649894</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="38" t="str">
         <f>TEXT(EXP(table3_calc!F7),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!G7),"0.00")</f>
         <v>0.98--1.00</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="22">
         <f>EXP(table3_calc!H7)</f>
         <v>1.0070742451278434</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="38" t="str">
         <f>TEXT(EXP(table3_calc!I7),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!J7),"0.00")</f>
         <v>1.00--1.02</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="22">
         <f>EXP(table3_calc!B9)</f>
         <v>1.1128732554283614</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="38" t="str">
         <f>TEXT(EXP(table3_calc!C9),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!D9),"0.00")</f>
         <v>1.05--1.18</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="22">
         <f>EXP(table3_calc!E9)</f>
         <v>0.99228553929194874</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="38" t="str">
         <f>TEXT(EXP(table3_calc!F9),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!G9),"0.00")</f>
         <v>0.99--1.00</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="22">
         <f>EXP(table3_calc!H8)</f>
         <v>1.0011279081292879</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="38" t="str">
         <f>TEXT(EXP(table3_calc!I8),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!J8),"0.00")</f>
         <v>1.00--1.01</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="22">
         <f>EXP(table3_calc!B5)</f>
         <v>1.2028546574627499</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="38" t="str">
         <f>TEXT(EXP(table3_calc!C5),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!D5),"0.00")</f>
         <v>1.10--1.31</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="22">
         <f>EXP(table3_calc!E5)</f>
         <v>0.98768277213185718</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="38" t="str">
         <f>TEXT(EXP(table3_calc!F5),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!G5),"0.00")</f>
         <v>0.98--1.00</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="22">
         <f>EXP(table3_calc!B2)</f>
         <v>1.2749581917488177</v>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="F10" s="38" t="str">
         <f>TEXT(EXP(table3_calc!C2),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!D2),"0.00")</f>
         <v>1.17--1.39</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="22">
         <f>EXP(table3_calc!E2)</f>
         <v>0.98692451940853643</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="38" t="str">
         <f>TEXT(EXP(table3_calc!F2),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!G2),"0.00")</f>
         <v>0.98--1.00</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="22">
         <f>EXP(table3_calc!B4)</f>
         <v>1.2396771679401826</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F11" s="38" t="str">
         <f>TEXT(EXP(table3_calc!C4),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!D4),"0.00")</f>
         <v>1.16--1.32</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="22">
         <f>EXP(table3_calc!E4)</f>
         <v>0.98967774370508665</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="38" t="str">
         <f>TEXT(EXP(table3_calc!F4),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!G4),"0.00")</f>
         <v>0.98--1.00</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="22">
         <f>EXP(table3_calc!B5)</f>
         <v>1.2028546574627499</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="38" t="str">
         <f>TEXT(EXP(table3_calc!C5),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!D5),"0.00")</f>
         <v>1.10--1.31</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="22">
         <f>EXP(table3_calc!E5)</f>
         <v>0.98768277213185718</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="38" t="str">
         <f>TEXT(EXP(table3_calc!F5),"0.00")&amp;"--"&amp;TEXT(EXP(table3_calc!G5),"0.00")</f>
         <v>0.98--1.00</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="61">
         <v>1</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>113</v>
-      </c>
+      <c r="F13" s="62"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5007,9 +5473,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.1796875" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
